--- a/capiq_data/in_process_data/IQ11041860.xlsx
+++ b/capiq_data/in_process_data/IQ11041860.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE9BA9-85DF-49F6-A1CC-8FB03A45636E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90161EC-18B8-48A8-9304-E1E866367A95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c90d32d9-52fb-42dd-8daf-ba8e9e85aad6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0d32431d-3722-48c0-9a03-88b6483699c9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$71</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$71</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$71</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$71</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$71</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$71</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$71</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$71</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$71</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$71</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$71</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$71</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$71</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$71</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$71</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$71</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$71</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$71</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$71</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$71</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$71</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$71</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$71</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$71</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$71</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$71</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,93 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +820,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37894</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>35.220999999999997</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>239.93199999999999</v>
+        <v>13.97</v>
       </c>
       <c r="E2">
-        <v>260.404</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>164.81200000000001</v>
+        <v>10.477</v>
       </c>
       <c r="G2">
-        <v>332.185</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5329.4830000000002</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>236.33099999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2781.9540000000002</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,247 +859,247 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>313.84100000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3274.82</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2806.9540000000002</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-54.774000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37894</v>
       </c>
       <c r="S2">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2054.663</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>11.718999999999999</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>118.708</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-7.6079999999999997</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>104.846</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.223</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>35.220999999999997</v>
+        <v>3.6549999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37986</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>37.502000000000002</v>
+        <v>3.8860000000000001</v>
       </c>
       <c r="D3">
-        <v>251.94900000000001</v>
+        <v>18.280999999999999</v>
       </c>
       <c r="E3">
-        <v>282.7</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="F3">
-        <v>164.33699999999999</v>
+        <v>12.923</v>
       </c>
       <c r="G3">
-        <v>386.904</v>
+        <v>12.141999999999999</v>
       </c>
       <c r="H3">
-        <v>5537.3450000000003</v>
+        <v>479.69799999999998</v>
       </c>
       <c r="I3">
-        <v>264.41399999999999</v>
+        <v>7.117</v>
       </c>
       <c r="J3">
-        <v>2640.5479999999998</v>
+        <v>297.86500000000001</v>
       </c>
       <c r="K3">
-        <v>225.83699999999999</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-434.03300000000002</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>680.59500000000003</v>
+        <v>7.9130000000000003</v>
       </c>
       <c r="O3">
-        <v>3498.2719999999999</v>
+        <v>328.303</v>
       </c>
       <c r="P3">
-        <v>3055.4290000000001</v>
+        <v>297.86500000000001</v>
       </c>
       <c r="Q3">
-        <v>32.649000000000001</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37986</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2039.0730000000001</v>
+        <v>151.39500000000001</v>
       </c>
       <c r="U3">
-        <v>44.368000000000002</v>
+        <v>5.1740000000000004</v>
       </c>
       <c r="V3">
-        <v>64.489000000000004</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="W3">
-        <v>-123.98399999999999</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>105.717</v>
+        <v>31.305</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.11899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>37.502000000000002</v>
+        <v>3.8860000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38077</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>36.703000000000003</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="D4">
-        <v>268.93900000000002</v>
+        <v>18.77</v>
       </c>
       <c r="E4">
-        <v>301.99</v>
+        <v>8.0459999999999994</v>
       </c>
       <c r="F4">
-        <v>170.70099999999999</v>
+        <v>13.25</v>
       </c>
       <c r="G4">
-        <v>386.81799999999998</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H4">
-        <v>5658.4049999999997</v>
+        <v>993.77700000000004</v>
       </c>
       <c r="I4">
-        <v>281.584</v>
+        <v>5.1459999999999999</v>
       </c>
       <c r="J4">
-        <v>2693.5529999999999</v>
+        <v>478.75900000000001</v>
       </c>
       <c r="K4">
-        <v>341.41699999999997</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="N4">
-        <v>658.30799999999999</v>
+        <v>8.6069999999999993</v>
       </c>
       <c r="O4">
-        <v>3524.5909999999999</v>
+        <v>530.18499999999995</v>
       </c>
       <c r="P4">
-        <v>3067.5770000000002</v>
+        <v>481.42399999999998</v>
       </c>
       <c r="Q4">
-        <v>-16.468</v>
+        <v>-0.92100000000000004</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38077</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2133.8139999999999</v>
+        <v>463.59199999999998</v>
       </c>
       <c r="U4">
-        <v>27.9</v>
+        <v>11.853999999999999</v>
       </c>
       <c r="V4">
-        <v>125.23399999999999</v>
+        <v>6.6269999999999998</v>
       </c>
       <c r="W4">
-        <v>-75.290000000000006</v>
+        <v>-1.74</v>
       </c>
       <c r="X4">
-        <v>51.762</v>
+        <v>33.023000000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>36.703000000000003</v>
+        <v>3.4609999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38168</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>36.344000000000001</v>
+        <v>3.0960000000000001</v>
       </c>
       <c r="D5">
-        <v>274.86599999999999</v>
+        <v>22.8</v>
       </c>
       <c r="E5">
-        <v>322.47199999999998</v>
+        <v>10.01</v>
       </c>
       <c r="F5">
-        <v>168.624</v>
+        <v>16.606000000000002</v>
       </c>
       <c r="G5">
-        <v>416.43400000000003</v>
+        <v>22.071999999999999</v>
       </c>
       <c r="H5">
-        <v>5826.4120000000003</v>
+        <v>1010.0170000000001</v>
       </c>
       <c r="I5">
-        <v>286.95999999999998</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="J5">
-        <v>2488.607</v>
+        <v>492.09199999999998</v>
       </c>
       <c r="K5">
-        <v>163.113</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1108,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>595.39300000000003</v>
+        <v>6.97</v>
       </c>
       <c r="O5">
-        <v>3249.5320000000002</v>
+        <v>541.68700000000001</v>
       </c>
       <c r="P5">
-        <v>2797.04</v>
+        <v>492.09199999999998</v>
       </c>
       <c r="Q5">
-        <v>10.832000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38168</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2576.88</v>
+        <v>468.33</v>
       </c>
       <c r="U5">
-        <v>38.731999999999999</v>
+        <v>12.061999999999999</v>
       </c>
       <c r="V5">
-        <v>90.375</v>
+        <v>8.3810000000000002</v>
       </c>
       <c r="W5">
-        <v>-77.683000000000007</v>
+        <v>-38.396999999999998</v>
       </c>
       <c r="X5">
-        <v>181.12100000000001</v>
+        <v>178.81</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-0.13800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>36.344000000000001</v>
+        <v>3.0960000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38260</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>45.716000000000001</v>
+        <v>3.359</v>
       </c>
       <c r="D6">
-        <v>271.90800000000002</v>
+        <v>29.346</v>
       </c>
       <c r="E6">
-        <v>337.39499999999998</v>
+        <v>13.819000000000001</v>
       </c>
       <c r="F6">
-        <v>177.76300000000001</v>
+        <v>23.213000000000001</v>
       </c>
       <c r="G6">
-        <v>433.19099999999997</v>
+        <v>26.66</v>
       </c>
       <c r="H6">
-        <v>6098.5659999999998</v>
+        <v>822.18899999999996</v>
       </c>
       <c r="I6">
-        <v>313.93299999999999</v>
+        <v>9.7210000000000001</v>
       </c>
       <c r="J6">
-        <v>2940.21</v>
+        <v>305.92599999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>243.68600000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,78 +1191,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>390.58800000000002</v>
+        <v>255.94200000000001</v>
       </c>
       <c r="O6">
-        <v>3518.1550000000002</v>
+        <v>593.69899999999996</v>
       </c>
       <c r="P6">
-        <v>2940.21</v>
+        <v>551.351</v>
       </c>
       <c r="Q6">
-        <v>1.899</v>
+        <v>-1.639</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38260</v>
       </c>
       <c r="S6">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2580.4110000000001</v>
+        <v>228.49</v>
       </c>
       <c r="U6">
-        <v>40.631</v>
+        <v>2.629</v>
       </c>
       <c r="V6">
-        <v>120.858</v>
+        <v>16.542999999999999</v>
       </c>
       <c r="W6">
-        <v>-9.7260000000000009</v>
+        <v>-6.0579999999999998</v>
       </c>
       <c r="X6">
-        <v>120.158</v>
+        <v>75.808000000000007</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-5.7569999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>45.716000000000001</v>
+        <v>3.359</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38352</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>48.042000000000002</v>
+        <v>-5.359</v>
       </c>
       <c r="D7">
-        <v>284.53699999999998</v>
+        <v>36.204999999999998</v>
       </c>
       <c r="E7">
-        <v>352.32900000000001</v>
+        <v>15.287000000000001</v>
       </c>
       <c r="F7">
-        <v>187.78</v>
+        <v>19.256</v>
       </c>
       <c r="G7">
-        <v>422.38200000000001</v>
+        <v>34.051000000000002</v>
       </c>
       <c r="H7">
-        <v>6418.0609999999997</v>
+        <v>1013.287</v>
       </c>
       <c r="I7">
-        <v>312.76799999999997</v>
+        <v>12.789</v>
       </c>
       <c r="J7">
-        <v>3192.3029999999999</v>
+        <v>519.49800000000005</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,164 +1271,164 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-199.01</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>393.51299999999998</v>
+        <v>21.065000000000001</v>
       </c>
       <c r="O7">
-        <v>3785.0770000000002</v>
+        <v>584.22900000000004</v>
       </c>
       <c r="P7">
-        <v>3271.848</v>
+        <v>519.49800000000005</v>
       </c>
       <c r="Q7">
-        <v>-14.388</v>
+        <v>1.9279999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38352</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T7">
-        <v>2632.9839999999999</v>
+        <v>429.05799999999999</v>
       </c>
       <c r="U7">
-        <v>26.242999999999999</v>
+        <v>4.5570000000000004</v>
       </c>
       <c r="V7">
-        <v>70.537000000000006</v>
+        <v>13.087</v>
       </c>
       <c r="W7">
-        <v>-166.20400000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>231.904</v>
+        <v>38.381</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3.7959999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>48.042000000000002</v>
+        <v>-5.359</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38442</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>52.334000000000003</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D8">
-        <v>307.197</v>
+        <v>37.966999999999999</v>
       </c>
       <c r="E8">
-        <v>376.58</v>
+        <v>17.986000000000001</v>
       </c>
       <c r="F8">
-        <v>198.648</v>
+        <v>27.841000000000001</v>
       </c>
       <c r="G8">
-        <v>459.67899999999997</v>
+        <v>34.634</v>
       </c>
       <c r="H8">
-        <v>6717.1130000000003</v>
+        <v>1099.7270000000001</v>
       </c>
       <c r="I8">
-        <v>371.274</v>
+        <v>13.513</v>
       </c>
       <c r="J8">
-        <v>3340.0360000000001</v>
+        <v>515.70100000000002</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-9.7880000000000003</v>
       </c>
       <c r="N8">
-        <v>433.15</v>
+        <v>13.513</v>
       </c>
       <c r="O8">
-        <v>3978.9290000000001</v>
+        <v>579.39300000000003</v>
       </c>
       <c r="P8">
-        <v>3400.212</v>
+        <v>515.70100000000002</v>
       </c>
       <c r="Q8">
-        <v>21.533999999999999</v>
+        <v>-1.6819999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38442</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2738.1840000000002</v>
+        <v>520.33399999999995</v>
       </c>
       <c r="U8">
-        <v>47.777000000000001</v>
+        <v>2.875</v>
       </c>
       <c r="V8">
-        <v>160.66300000000001</v>
+        <v>11.708</v>
       </c>
       <c r="W8">
-        <v>-94.293999999999997</v>
+        <v>-22.452000000000002</v>
       </c>
       <c r="X8">
-        <v>190.47399999999999</v>
+        <v>58.255000000000003</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-26.795999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>52.334000000000003</v>
+        <v>2.7389999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38533</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>55.392000000000003</v>
+        <v>4.335</v>
       </c>
       <c r="D9">
-        <v>343.99900000000002</v>
+        <v>48.058999999999997</v>
       </c>
       <c r="E9">
-        <v>447.56</v>
+        <v>22.186</v>
       </c>
       <c r="F9">
-        <v>218.23</v>
+        <v>34.171999999999997</v>
       </c>
       <c r="G9">
-        <v>566.89200000000005</v>
+        <v>51.128999999999998</v>
       </c>
       <c r="H9">
-        <v>8512.598</v>
+        <v>1368.2560000000001</v>
       </c>
       <c r="I9">
-        <v>523.04200000000003</v>
+        <v>24.416</v>
       </c>
       <c r="J9">
-        <v>4076.308</v>
+        <v>761.67399999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1440,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>619.80700000000002</v>
+        <v>28.428999999999998</v>
       </c>
       <c r="O9">
-        <v>4985.0420000000004</v>
+        <v>856.61699999999996</v>
       </c>
       <c r="P9">
-        <v>4080.0729999999999</v>
+        <v>765.68700000000001</v>
       </c>
       <c r="Q9">
-        <v>28.338000000000001</v>
+        <v>1.107</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38533</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3527.556</v>
+        <v>511.63900000000001</v>
       </c>
       <c r="U9">
-        <v>76.114999999999995</v>
+        <v>3.9820000000000002</v>
       </c>
       <c r="V9">
-        <v>125.336</v>
+        <v>22.61</v>
       </c>
       <c r="W9">
-        <v>-102.85299999999999</v>
+        <v>-15.103999999999999</v>
       </c>
       <c r="X9">
-        <v>1341.498</v>
+        <v>233.43</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-6.4770000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>55.392000000000003</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38625</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>54.566000000000003</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="D10">
-        <v>351.46899999999999</v>
+        <v>54.822000000000003</v>
       </c>
       <c r="E10">
-        <v>490.00099999999998</v>
+        <v>26.837</v>
       </c>
       <c r="F10">
-        <v>220.17699999999999</v>
+        <v>36.915999999999997</v>
       </c>
       <c r="G10">
-        <v>590.33199999999999</v>
+        <v>62.932000000000002</v>
       </c>
       <c r="H10">
-        <v>8819.2139999999999</v>
+        <v>1454.222</v>
       </c>
       <c r="I10">
-        <v>644.72699999999998</v>
+        <v>36.9</v>
       </c>
       <c r="J10">
-        <v>4245.5649999999996</v>
+        <v>684.71299999999997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1523,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>772.86099999999999</v>
+        <v>39.095999999999997</v>
       </c>
       <c r="O10">
-        <v>5320.83</v>
+        <v>792.53800000000001</v>
       </c>
       <c r="P10">
-        <v>4278.5649999999996</v>
+        <v>686.90899999999999</v>
       </c>
       <c r="Q10">
-        <v>-19.834</v>
+        <v>3.0880000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38625</v>
       </c>
       <c r="S10">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>3498.384</v>
+        <v>661.68399999999997</v>
       </c>
       <c r="U10">
-        <v>56.280999999999999</v>
+        <v>7.07</v>
       </c>
       <c r="V10">
-        <v>186.41200000000001</v>
+        <v>29.984000000000002</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-17.439</v>
       </c>
       <c r="X10">
-        <v>184.75899999999999</v>
+        <v>55.298000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-17.757999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>54.566000000000003</v>
+        <v>4.4249999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38717</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>50.710999999999999</v>
+        <v>4.6020000000000003</v>
       </c>
       <c r="D11">
-        <v>360.70499999999998</v>
+        <v>60.582999999999998</v>
       </c>
       <c r="E11">
-        <v>518.70399999999995</v>
+        <v>32.680999999999997</v>
       </c>
       <c r="F11">
-        <v>232.036</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="G11">
-        <v>604.76300000000003</v>
+        <v>65.733999999999995</v>
       </c>
       <c r="H11">
-        <v>8971.4920000000002</v>
+        <v>1529.17</v>
       </c>
       <c r="I11">
-        <v>519.83699999999999</v>
+        <v>36.069000000000003</v>
       </c>
       <c r="J11">
-        <v>4463.47</v>
+        <v>749.06700000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,164 +1603,164 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-660.99099999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>832.19100000000003</v>
+        <v>51.707999999999998</v>
       </c>
       <c r="O11">
-        <v>5589.5439999999999</v>
+        <v>880.22799999999995</v>
       </c>
       <c r="P11">
-        <v>4682.1239999999998</v>
+        <v>749.06700000000001</v>
       </c>
       <c r="Q11">
-        <v>-14.151</v>
+        <v>3.86</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38717</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="T11">
-        <v>3381.9479999999999</v>
+        <v>648.94200000000001</v>
       </c>
       <c r="U11">
-        <v>42.13</v>
+        <v>10.93</v>
       </c>
       <c r="V11">
-        <v>89.040999999999997</v>
+        <v>18.545999999999999</v>
       </c>
       <c r="W11">
-        <v>-203.994</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>252.446</v>
+        <v>57.356999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-18.196000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>50.710999999999999</v>
+        <v>4.6020000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38807</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>58.475999999999999</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="D12">
-        <v>365.83199999999999</v>
+        <v>57.121000000000002</v>
       </c>
       <c r="E12">
-        <v>520.43499999999995</v>
+        <v>56.805</v>
       </c>
       <c r="F12">
-        <v>237.96700000000001</v>
+        <v>39.223999999999997</v>
       </c>
       <c r="G12">
-        <v>583.67200000000003</v>
+        <v>100.029</v>
       </c>
       <c r="H12">
-        <v>9184.8590000000004</v>
+        <v>1574.0409999999999</v>
       </c>
       <c r="I12">
-        <v>534.36599999999999</v>
+        <v>41.322000000000003</v>
       </c>
       <c r="J12">
-        <v>4482.848</v>
+        <v>756.34100000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-18.928999999999998</v>
       </c>
       <c r="N12">
-        <v>833.16600000000005</v>
+        <v>100.536</v>
       </c>
       <c r="O12">
-        <v>5601.5889999999999</v>
+        <v>935.03899999999999</v>
       </c>
       <c r="P12">
-        <v>4698.2479999999996</v>
+        <v>813.65499999999997</v>
       </c>
       <c r="Q12">
-        <v>-17.87</v>
+        <v>14.249000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38807</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3583.27</v>
+        <v>639.00199999999995</v>
       </c>
       <c r="U12">
-        <v>24.26</v>
+        <v>25.178999999999998</v>
       </c>
       <c r="V12">
-        <v>186.46600000000001</v>
+        <v>14.856999999999999</v>
       </c>
       <c r="W12">
-        <v>-113.90600000000001</v>
+        <v>-34.725999999999999</v>
       </c>
       <c r="X12">
-        <v>152.274</v>
+        <v>31.925000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-4.5579999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>58.475999999999999</v>
+        <v>5.0869999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38898</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>150.59800000000001</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="D13">
-        <v>381.63</v>
+        <v>62.237000000000002</v>
       </c>
       <c r="E13">
-        <v>561.69399999999996</v>
+        <v>48.042000000000002</v>
       </c>
       <c r="F13">
-        <v>226.02799999999999</v>
+        <v>42.192999999999998</v>
       </c>
       <c r="G13">
-        <v>659.26900000000001</v>
+        <v>122.005</v>
       </c>
       <c r="H13">
-        <v>9426.0409999999993</v>
+        <v>1713.857</v>
       </c>
       <c r="I13">
-        <v>577.91999999999996</v>
+        <v>41.426000000000002</v>
       </c>
       <c r="J13">
-        <v>4620.6459999999997</v>
+        <v>765.84</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1772,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>812.471</v>
+        <v>97.986999999999995</v>
       </c>
       <c r="O13">
-        <v>5745.4719999999998</v>
+        <v>990.42200000000003</v>
       </c>
       <c r="P13">
-        <v>4780.3969999999999</v>
+        <v>820.50099999999998</v>
       </c>
       <c r="Q13">
-        <v>30.858000000000001</v>
+        <v>-11.771000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38898</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3680.569</v>
+        <v>723.43499999999995</v>
       </c>
       <c r="U13">
-        <v>55.118000000000002</v>
+        <v>13.407999999999999</v>
       </c>
       <c r="V13">
-        <v>178.57300000000001</v>
+        <v>28.812000000000001</v>
       </c>
       <c r="W13">
-        <v>-114.232</v>
+        <v>-20.154</v>
       </c>
       <c r="X13">
-        <v>-127.462</v>
+        <v>104.268</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>326.92599999999999</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>150.59800000000001</v>
+        <v>5.0949999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38990</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>54.703000000000003</v>
+        <v>14.787000000000001</v>
       </c>
       <c r="D14">
-        <v>383.88799999999998</v>
+        <v>70.673000000000002</v>
       </c>
       <c r="E14">
-        <v>515.75199999999995</v>
+        <v>51.970999999999997</v>
       </c>
       <c r="F14">
-        <v>243.738</v>
+        <v>48.744999999999997</v>
       </c>
       <c r="G14">
-        <v>612.92200000000003</v>
+        <v>104.098</v>
       </c>
       <c r="H14">
-        <v>9626.83</v>
+        <v>1971.7619999999999</v>
       </c>
       <c r="I14">
-        <v>660.98699999999997</v>
+        <v>53.509</v>
       </c>
       <c r="J14">
-        <v>4695.4920000000002</v>
+        <v>1064.374</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1855,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1031.596</v>
+        <v>83.944000000000003</v>
       </c>
       <c r="O14">
-        <v>5980.3180000000002</v>
+        <v>1247.3510000000001</v>
       </c>
       <c r="P14">
-        <v>4961.8919999999998</v>
+        <v>1074.7570000000001</v>
       </c>
       <c r="Q14">
-        <v>1.69</v>
+        <v>14.242000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38990</v>
       </c>
       <c r="S14">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>3646.5120000000002</v>
+        <v>724.41099999999994</v>
       </c>
       <c r="U14">
-        <v>56.808</v>
+        <v>27.65</v>
       </c>
       <c r="V14">
-        <v>202.31</v>
+        <v>18.398</v>
       </c>
       <c r="W14">
-        <v>-11.726000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>127.488</v>
+        <v>218.78100000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-17.155000000000001</v>
+        <v>-5.3529999999999998</v>
       </c>
       <c r="AA14">
-        <v>54.703000000000003</v>
+        <v>14.787000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39082</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>45.911999999999999</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>393.17099999999999</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>596.94799999999998</v>
+        <v>71.518000000000001</v>
       </c>
       <c r="F15">
-        <v>253.06899999999999</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>735.10199999999998</v>
+        <v>121.923</v>
       </c>
       <c r="H15">
-        <v>9805.3940000000002</v>
+        <v>2186.2190000000001</v>
       </c>
       <c r="I15">
-        <v>552.64499999999998</v>
+        <v>86.197999999999993</v>
       </c>
       <c r="J15">
-        <v>4565.1639999999998</v>
+        <v>977.18600000000004</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>145.452</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-374.69400000000002</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1060.472</v>
+        <v>253.536</v>
       </c>
       <c r="O15">
-        <v>5929.674</v>
+        <v>1338.0309999999999</v>
       </c>
       <c r="P15">
-        <v>5007.3810000000003</v>
+        <v>1122.6379999999999</v>
       </c>
       <c r="Q15">
-        <v>13.433999999999999</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39082</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="T15">
-        <v>3875.72</v>
+        <v>848.18799999999999</v>
       </c>
       <c r="U15">
-        <v>70.242000000000004</v>
+        <v>22.260999999999999</v>
       </c>
       <c r="V15">
-        <v>116.411</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-223.613</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>124.56699999999999</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.83899999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>45.911999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39172</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>60.338999999999999</v>
+        <v>22.085999999999999</v>
       </c>
       <c r="D16">
-        <v>404.923</v>
+        <v>89.512</v>
       </c>
       <c r="E16">
-        <v>597.93799999999999</v>
+        <v>73.311999999999998</v>
       </c>
       <c r="F16">
-        <v>256.77699999999999</v>
+        <v>60.732999999999997</v>
       </c>
       <c r="G16">
-        <v>718.64200000000005</v>
+        <v>148.14099999999999</v>
       </c>
       <c r="H16">
-        <v>9910.2309999999998</v>
+        <v>2333.7910000000002</v>
       </c>
       <c r="I16">
-        <v>574.08299999999997</v>
+        <v>64.254999999999995</v>
       </c>
       <c r="J16">
-        <v>4685.4290000000001</v>
+        <v>1271.9880000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2018,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-161.251</v>
       </c>
       <c r="N16">
-        <v>810.58900000000006</v>
+        <v>89.54</v>
       </c>
       <c r="O16">
-        <v>5775.95</v>
+        <v>1481.575</v>
       </c>
       <c r="P16">
-        <v>4859.2349999999997</v>
+        <v>1271.9880000000001</v>
       </c>
       <c r="Q16">
-        <v>10.683999999999999</v>
+        <v>24.738</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39172</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4134.2809999999999</v>
+        <v>852.21600000000001</v>
       </c>
       <c r="U16">
-        <v>80.926000000000002</v>
+        <v>46.999000000000002</v>
       </c>
       <c r="V16">
-        <v>198.85300000000001</v>
+        <v>26.274000000000001</v>
       </c>
       <c r="W16">
-        <v>-133.714</v>
+        <v>-19.388000000000002</v>
       </c>
       <c r="X16">
-        <v>-11.897</v>
+        <v>126.90300000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-10.061</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>60.338999999999999</v>
+        <v>22.085999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39263</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>127.76900000000001</v>
+        <v>7.758</v>
       </c>
       <c r="D17">
-        <v>415.64100000000002</v>
+        <v>95.799000000000007</v>
       </c>
       <c r="E17">
-        <v>582.82100000000003</v>
+        <v>82</v>
       </c>
       <c r="F17">
-        <v>258.83800000000002</v>
+        <v>64.591999999999999</v>
       </c>
       <c r="G17">
-        <v>633.33500000000004</v>
+        <v>162.619</v>
       </c>
       <c r="H17">
-        <v>9722.0069999999996</v>
+        <v>2393.4760000000001</v>
       </c>
       <c r="I17">
-        <v>582.01400000000001</v>
+        <v>61.537999999999997</v>
       </c>
       <c r="J17">
-        <v>4701.5410000000002</v>
+        <v>1073.6320000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,81 +2104,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>686.50199999999995</v>
+        <v>193.892</v>
       </c>
       <c r="O17">
-        <v>5618.4470000000001</v>
+        <v>1384.223</v>
       </c>
       <c r="P17">
-        <v>4739.7290000000003</v>
+        <v>1172.307</v>
       </c>
       <c r="Q17">
-        <v>-43.271000000000001</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39263</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4103.5600000000004</v>
+        <v>1009.253</v>
       </c>
       <c r="U17">
-        <v>36.527999999999999</v>
+        <v>48.014000000000003</v>
       </c>
       <c r="V17">
-        <v>157.303</v>
+        <v>30.190999999999999</v>
       </c>
       <c r="W17">
-        <v>-133.41800000000001</v>
+        <v>-22.884</v>
       </c>
       <c r="X17">
-        <v>-139.50399999999999</v>
+        <v>43.439</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>167.52600000000001</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>127.76900000000001</v>
+        <v>7.758</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39355</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-33.837000000000003</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="D18">
-        <v>415.99200000000002</v>
+        <v>104.557</v>
       </c>
       <c r="E18">
-        <v>583.57399999999996</v>
+        <v>87.638999999999996</v>
       </c>
       <c r="F18">
-        <v>265.06200000000001</v>
+        <v>66.159000000000006</v>
       </c>
       <c r="G18">
-        <v>756.92100000000005</v>
+        <v>175.53700000000001</v>
       </c>
       <c r="H18">
-        <v>9526.7839999999997</v>
+        <v>2576.1190000000001</v>
       </c>
       <c r="I18">
-        <v>604.22299999999996</v>
+        <v>73.162999999999997</v>
       </c>
       <c r="J18">
-        <v>4673.1270000000004</v>
+        <v>1231.2529999999999</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.5110000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,161 +2187,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>835.18399999999997</v>
+        <v>233.47399999999999</v>
       </c>
       <c r="O18">
-        <v>5612.5460000000003</v>
+        <v>1580.7860000000001</v>
       </c>
       <c r="P18">
-        <v>4673.1270000000004</v>
+        <v>1335.1079999999999</v>
       </c>
       <c r="Q18">
-        <v>3.887</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39355</v>
       </c>
       <c r="S18">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3914.2379999999998</v>
+        <v>995.33299999999997</v>
       </c>
       <c r="U18">
-        <v>34.814</v>
+        <v>49.182000000000002</v>
       </c>
       <c r="V18">
-        <v>183.321</v>
+        <v>23.172999999999998</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-24.626000000000001</v>
       </c>
       <c r="X18">
-        <v>-0.14000000000000001</v>
+        <v>121.762</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>31.637</v>
+        <v>16.815999999999999</v>
       </c>
       <c r="AA18">
-        <v>-33.837000000000003</v>
+        <v>5.1349999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39447</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>120.18300000000001</v>
+        <v>5.6130000000000004</v>
       </c>
       <c r="D19">
-        <v>411.22699999999998</v>
+        <v>105.828</v>
       </c>
       <c r="E19">
-        <v>568.82899999999995</v>
+        <v>108.07899999999999</v>
       </c>
       <c r="F19">
-        <v>263.30799999999999</v>
+        <v>68.287000000000006</v>
       </c>
       <c r="G19">
-        <v>699.75900000000001</v>
+        <v>180.733</v>
       </c>
       <c r="H19">
-        <v>9408.4259999999995</v>
+        <v>2809.4639999999999</v>
       </c>
       <c r="I19">
-        <v>509.44799999999998</v>
+        <v>173.04300000000001</v>
       </c>
       <c r="J19">
-        <v>4744.674</v>
+        <v>1062.4659999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>305.27199999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-282.72300000000001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>600.41300000000001</v>
+        <v>503.76</v>
       </c>
       <c r="O19">
-        <v>5550.5649999999996</v>
+        <v>1687.6369999999999</v>
       </c>
       <c r="P19">
-        <v>4817.9110000000001</v>
+        <v>1367.7380000000001</v>
       </c>
       <c r="Q19">
-        <v>-3.992</v>
+        <v>-17.829999999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39447</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="T19">
-        <v>3857.8609999999999</v>
+        <v>1121.827</v>
       </c>
       <c r="U19">
-        <v>37.329000000000001</v>
+        <v>31.352</v>
       </c>
       <c r="V19">
-        <v>138.922</v>
+        <v>26.016999999999999</v>
       </c>
       <c r="W19">
-        <v>-251.333</v>
+        <v>-30.183</v>
       </c>
       <c r="X19">
-        <v>6.1559999999999997</v>
+        <v>148.75899999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-7.5469999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>120.18300000000001</v>
+        <v>5.6130000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39538</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>135.511</v>
+        <v>10.577</v>
       </c>
       <c r="D20">
-        <v>423.678</v>
+        <v>114.705</v>
       </c>
       <c r="E20">
-        <v>593.99599999999998</v>
+        <v>119.083</v>
       </c>
       <c r="F20">
-        <v>270.07299999999998</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="G20">
-        <v>834.53200000000004</v>
+        <v>190.898</v>
       </c>
       <c r="H20">
-        <v>9586.009</v>
+        <v>2895.0360000000001</v>
       </c>
       <c r="I20">
-        <v>501.73200000000003</v>
+        <v>133.416</v>
       </c>
       <c r="J20">
-        <v>4897.7740000000003</v>
+        <v>1190.691</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,40 +2350,40 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-310.75799999999998</v>
       </c>
       <c r="N20">
-        <v>594.72500000000002</v>
+        <v>133.416</v>
       </c>
       <c r="O20">
-        <v>5695.8159999999998</v>
+        <v>1444.2940000000001</v>
       </c>
       <c r="P20">
-        <v>4968.826</v>
+        <v>1190.691</v>
       </c>
       <c r="Q20">
-        <v>21.823</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39538</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3890.1930000000002</v>
+        <v>1450.742</v>
       </c>
       <c r="U20">
-        <v>59.152000000000001</v>
+        <v>34.366999999999997</v>
       </c>
       <c r="V20">
-        <v>216.22900000000001</v>
+        <v>17.838999999999999</v>
       </c>
       <c r="W20">
-        <v>-136.34700000000001</v>
+        <v>-53.021000000000001</v>
       </c>
       <c r="X20">
-        <v>-101.617</v>
+        <v>98.429000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2392,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>135.511</v>
+        <v>10.577</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39629</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>56.978000000000002</v>
+        <v>13.196</v>
       </c>
       <c r="D21">
-        <v>440.15800000000002</v>
+        <v>123.949</v>
       </c>
       <c r="E21">
-        <v>633.79</v>
+        <v>129.01400000000001</v>
       </c>
       <c r="F21">
-        <v>268.625</v>
+        <v>79.483999999999995</v>
       </c>
       <c r="G21">
-        <v>842.74900000000002</v>
+        <v>185.727</v>
       </c>
       <c r="H21">
-        <v>9501.0130000000008</v>
+        <v>3070.85</v>
       </c>
       <c r="I21">
-        <v>513.55499999999995</v>
+        <v>144.03200000000001</v>
       </c>
       <c r="J21">
-        <v>4721.8109999999997</v>
+        <v>1263.8800000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2436,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>547.21500000000003</v>
+        <v>244.42400000000001</v>
       </c>
       <c r="O21">
-        <v>5465.3620000000001</v>
+        <v>1623.8009999999999</v>
       </c>
       <c r="P21">
-        <v>4748.5789999999997</v>
+        <v>1361.172</v>
       </c>
       <c r="Q21">
-        <v>-29.646999999999998</v>
+        <v>-14.603</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39629</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4035.6509999999998</v>
+        <v>1447.049</v>
       </c>
       <c r="U21">
-        <v>22.998000000000001</v>
+        <v>19.763999999999999</v>
       </c>
       <c r="V21">
-        <v>184.05600000000001</v>
+        <v>55.515000000000001</v>
       </c>
       <c r="W21">
-        <v>-136.5</v>
+        <v>-32.545999999999999</v>
       </c>
       <c r="X21">
-        <v>-30.321000000000002</v>
+        <v>138.71299999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="AA21">
-        <v>56.978000000000002</v>
+        <v>13.196</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39721</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-15.983000000000001</v>
+        <v>17.585999999999999</v>
       </c>
       <c r="D22">
-        <v>503.76400000000001</v>
+        <v>142.19399999999999</v>
       </c>
       <c r="E22">
-        <v>580.72500000000002</v>
+        <v>142.71799999999999</v>
       </c>
       <c r="F22">
-        <v>316.94799999999998</v>
+        <v>93.646000000000001</v>
       </c>
       <c r="G22">
-        <v>837.495</v>
+        <v>230.09299999999999</v>
       </c>
       <c r="H22">
-        <v>11416.063</v>
+        <v>3158.8850000000002</v>
       </c>
       <c r="I22">
-        <v>606.61699999999996</v>
+        <v>148.95099999999999</v>
       </c>
       <c r="J22">
-        <v>5899.4530000000004</v>
+        <v>1178.3699999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2519,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>878.99400000000003</v>
+        <v>257.19900000000001</v>
       </c>
       <c r="O22">
-        <v>6879.5609999999997</v>
+        <v>1548.11</v>
       </c>
       <c r="P22">
-        <v>5899.4629999999997</v>
+        <v>1283.7180000000001</v>
       </c>
       <c r="Q22">
-        <v>34.055</v>
+        <v>22.213999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39721</v>
       </c>
       <c r="S22">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>4536.5020000000004</v>
+        <v>1610.7750000000001</v>
       </c>
       <c r="U22">
-        <v>57.052999999999997</v>
+        <v>41.978000000000002</v>
       </c>
       <c r="V22">
-        <v>260.02499999999998</v>
+        <v>50.183</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-34.360999999999997</v>
       </c>
       <c r="X22">
-        <v>1874.8109999999999</v>
+        <v>117.985</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-15.983000000000001</v>
+        <v>17.585999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39813</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>61.548999999999999</v>
+        <v>23.895</v>
       </c>
       <c r="D23">
-        <v>508.27699999999999</v>
+        <v>148.96600000000001</v>
       </c>
       <c r="E23">
-        <v>593.03499999999997</v>
+        <v>139.065</v>
       </c>
       <c r="F23">
-        <v>324.87799999999999</v>
+        <v>99.534999999999997</v>
       </c>
       <c r="G23">
-        <v>788.85500000000002</v>
+        <v>257.86900000000003</v>
       </c>
       <c r="H23">
-        <v>11421.975</v>
+        <v>3281.0450000000001</v>
       </c>
       <c r="I23">
-        <v>440.65199999999999</v>
+        <v>168.27600000000001</v>
       </c>
       <c r="J23">
-        <v>6156.73</v>
+        <v>1094.874</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>138.57900000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1204.201</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>723.56</v>
+        <v>487.46800000000002</v>
       </c>
       <c r="O23">
-        <v>6976.7650000000003</v>
+        <v>1705.9690000000001</v>
       </c>
       <c r="P23">
-        <v>6156.73</v>
+        <v>1385.0740000000001</v>
       </c>
       <c r="Q23">
-        <v>-24.329000000000001</v>
+        <v>31.356000000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39813</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="T23">
-        <v>4445.21</v>
+        <v>1575.076</v>
       </c>
       <c r="U23">
-        <v>31.134</v>
+        <v>73.334000000000003</v>
       </c>
       <c r="V23">
-        <v>180.614</v>
+        <v>94.271000000000001</v>
       </c>
       <c r="W23">
-        <v>-280.899</v>
+        <v>-10.112</v>
       </c>
       <c r="X23">
-        <v>-50.814999999999998</v>
+        <v>116.798</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1.0999999999999999E-2</v>
+        <v>-20.611999999999998</v>
       </c>
       <c r="AA23">
-        <v>61.548999999999999</v>
+        <v>23.895</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39903</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>50.375</v>
+        <v>20.396000000000001</v>
       </c>
       <c r="D24">
-        <v>519.06600000000003</v>
+        <v>150.25</v>
       </c>
       <c r="E24">
-        <v>574.05999999999995</v>
+        <v>148.83600000000001</v>
       </c>
       <c r="F24">
-        <v>328.45400000000001</v>
+        <v>98.465999999999994</v>
       </c>
       <c r="G24">
-        <v>847.90200000000004</v>
+        <v>259.00599999999997</v>
       </c>
       <c r="H24">
-        <v>11292.375</v>
+        <v>3351.6129999999998</v>
       </c>
       <c r="I24">
-        <v>438.71</v>
+        <v>63.337000000000003</v>
       </c>
       <c r="J24">
-        <v>6135.4059999999999</v>
+        <v>1384.857</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,40 +2682,40 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-171.34899999999999</v>
       </c>
       <c r="N24">
-        <v>611.702</v>
+        <v>118.16800000000001</v>
       </c>
       <c r="O24">
-        <v>6966.7330000000002</v>
+        <v>1705.537</v>
       </c>
       <c r="P24">
-        <v>6135.4059999999999</v>
+        <v>1439.6880000000001</v>
       </c>
       <c r="Q24">
-        <v>0.80500000000000005</v>
+        <v>5.6020000000000003</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39903</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4325.6419999999998</v>
+        <v>1646.076</v>
       </c>
       <c r="U24">
-        <v>33.241</v>
+        <v>78.936000000000007</v>
       </c>
       <c r="V24">
-        <v>216.01900000000001</v>
+        <v>41.378</v>
       </c>
       <c r="W24">
-        <v>-153.96799999999999</v>
+        <v>-63.246000000000002</v>
       </c>
       <c r="X24">
-        <v>-69.091999999999999</v>
+        <v>96.932000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2724,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>50.375</v>
+        <v>20.396000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39994</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>219.18799999999999</v>
+        <v>20.372</v>
       </c>
       <c r="D25">
-        <v>550.44500000000005</v>
+        <v>155.74799999999999</v>
       </c>
       <c r="E25">
-        <v>621.07399999999996</v>
+        <v>163.018</v>
       </c>
       <c r="F25">
-        <v>346.61799999999999</v>
+        <v>104.298</v>
       </c>
       <c r="G25">
-        <v>725.11900000000003</v>
+        <v>263.01</v>
       </c>
       <c r="H25">
-        <v>12299.035</v>
+        <v>3444.7080000000001</v>
       </c>
       <c r="I25">
-        <v>655.10500000000002</v>
+        <v>71.957999999999998</v>
       </c>
       <c r="J25">
-        <v>6024.9870000000001</v>
+        <v>1458.7059999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2768,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>990.51199999999994</v>
+        <v>188.07900000000001</v>
       </c>
       <c r="O25">
-        <v>7102.3869999999997</v>
+        <v>1773.3440000000001</v>
       </c>
       <c r="P25">
-        <v>6024.9870000000001</v>
+        <v>1519.5060000000001</v>
       </c>
       <c r="Q25">
-        <v>-3.4079999999999999</v>
+        <v>-9.6199999999999992</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39994</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5196.6480000000001</v>
+        <v>1671.364</v>
       </c>
       <c r="U25">
-        <v>36.445</v>
+        <v>69.316000000000003</v>
       </c>
       <c r="V25">
-        <v>230.42</v>
+        <v>102.104</v>
       </c>
       <c r="W25">
-        <v>-153.131</v>
+        <v>-37.164999999999999</v>
       </c>
       <c r="X25">
-        <v>540.64200000000005</v>
+        <v>16.716000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>219.18799999999999</v>
+        <v>20.372</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40086</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>95.075000000000003</v>
+        <v>22.507000000000001</v>
       </c>
       <c r="D26">
-        <v>581.529</v>
+        <v>164.31800000000001</v>
       </c>
       <c r="E26">
-        <v>616.20699999999999</v>
+        <v>179.86199999999999</v>
       </c>
       <c r="F26">
-        <v>376.20299999999997</v>
+        <v>109.745</v>
       </c>
       <c r="G26">
-        <v>707.45600000000002</v>
+        <v>257.827</v>
       </c>
       <c r="H26">
-        <v>12192.584999999999</v>
+        <v>3532.4180000000001</v>
       </c>
       <c r="I26">
-        <v>817.27</v>
+        <v>94.701999999999998</v>
       </c>
       <c r="J26">
-        <v>5840.4250000000002</v>
+        <v>1446.2059999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2851,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1137.9639999999999</v>
+        <v>306.13600000000002</v>
       </c>
       <c r="O26">
-        <v>7060.2879999999996</v>
+        <v>1878.259</v>
       </c>
       <c r="P26">
-        <v>5840.5150000000003</v>
+        <v>1599.27</v>
       </c>
       <c r="Q26">
-        <v>-26.094000000000001</v>
+        <v>-28.164000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40086</v>
       </c>
       <c r="S26">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>5132.2969999999996</v>
+        <v>1654.1590000000001</v>
       </c>
       <c r="U26">
-        <v>10.528</v>
+        <v>41.152000000000001</v>
       </c>
       <c r="V26">
-        <v>284.18900000000002</v>
+        <v>75.242000000000004</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-39.676000000000002</v>
       </c>
       <c r="X26">
-        <v>-70.117999999999995</v>
+        <v>-5.0640000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,164 +2890,164 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>95.075000000000003</v>
+        <v>22.507000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40178</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>83.537999999999997</v>
+        <v>24.387</v>
       </c>
       <c r="D27">
-        <v>555.89300000000003</v>
+        <v>168.99799999999999</v>
       </c>
       <c r="E27">
-        <v>614.26400000000001</v>
+        <v>191.636</v>
       </c>
       <c r="F27">
-        <v>356.31200000000001</v>
+        <v>112.386</v>
       </c>
       <c r="G27">
-        <v>710.178</v>
+        <v>301.76600000000002</v>
       </c>
       <c r="H27">
-        <v>12329.548000000001</v>
+        <v>3745.0590000000002</v>
       </c>
       <c r="I27">
-        <v>647.41600000000005</v>
+        <v>148.62899999999999</v>
       </c>
       <c r="J27">
-        <v>6202.8789999999999</v>
+        <v>1561.8969999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>222.547</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-408.351</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>977.58299999999997</v>
+        <v>410.78</v>
       </c>
       <c r="O27">
-        <v>7259.1030000000001</v>
+        <v>2110.2579999999998</v>
       </c>
       <c r="P27">
-        <v>6202.884</v>
+        <v>1784.444</v>
       </c>
       <c r="Q27">
-        <v>3.3610000000000002</v>
+        <v>31.167999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40178</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="T27">
-        <v>5070.4449999999997</v>
+        <v>1634.8009999999999</v>
       </c>
       <c r="U27">
-        <v>14.95</v>
+        <v>72.319999999999993</v>
       </c>
       <c r="V27">
-        <v>219.066</v>
+        <v>65.084999999999994</v>
       </c>
       <c r="W27">
-        <v>-312.49799999999999</v>
+        <v>-10.101000000000001</v>
       </c>
       <c r="X27">
-        <v>-2.891</v>
+        <v>126.502</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-5.7489999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>83.537999999999997</v>
+        <v>24.387</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40268</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>78.650999999999996</v>
+        <v>24.844999999999999</v>
       </c>
       <c r="D28">
-        <v>574.37699999999995</v>
+        <v>193.75700000000001</v>
       </c>
       <c r="E28">
-        <v>652.63800000000003</v>
+        <v>209.72300000000001</v>
       </c>
       <c r="F28">
-        <v>357.26499999999999</v>
+        <v>126.961</v>
       </c>
       <c r="G28">
-        <v>798.18200000000002</v>
+        <v>300.67700000000002</v>
       </c>
       <c r="H28">
-        <v>12579.571</v>
+        <v>4147.5860000000002</v>
       </c>
       <c r="I28">
-        <v>688.55499999999995</v>
+        <v>163.01499999999999</v>
       </c>
       <c r="J28">
-        <v>6438.7669999999998</v>
+        <v>2140.6120000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-475.54700000000003</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-3.2549999999999999</v>
       </c>
       <c r="N28">
-        <v>1033.4110000000001</v>
+        <v>193.21199999999999</v>
       </c>
       <c r="O28">
-        <v>7548.277</v>
+        <v>2499.0810000000001</v>
       </c>
       <c r="P28">
-        <v>6438.7669999999998</v>
+        <v>2168.2089999999998</v>
       </c>
       <c r="Q28">
-        <v>15.917</v>
+        <v>-21.510999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40268</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5031.2939999999999</v>
+        <v>1648.5050000000001</v>
       </c>
       <c r="U28">
-        <v>22.382999999999999</v>
+        <v>50.808999999999997</v>
       </c>
       <c r="V28">
-        <v>300.24599999999998</v>
+        <v>57.2</v>
       </c>
       <c r="W28">
-        <v>-167.619</v>
+        <v>-87.248000000000005</v>
       </c>
       <c r="X28">
-        <v>-16.544</v>
+        <v>364.04399999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3056,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>78.650999999999996</v>
+        <v>24.844999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40359</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>12.435</v>
+        <v>19.192</v>
       </c>
       <c r="D29">
-        <v>615.80499999999995</v>
+        <v>198.41900000000001</v>
       </c>
       <c r="E29">
-        <v>678.83799999999997</v>
+        <v>217.16800000000001</v>
       </c>
       <c r="F29">
-        <v>350.34899999999999</v>
+        <v>129.55000000000001</v>
       </c>
       <c r="G29">
-        <v>1035.4849999999999</v>
+        <v>595.60500000000002</v>
       </c>
       <c r="H29">
-        <v>21232.498</v>
+        <v>4501.0320000000002</v>
       </c>
       <c r="I29">
-        <v>857.49</v>
+        <v>194.09100000000001</v>
       </c>
       <c r="J29">
-        <v>8484.607</v>
+        <v>2089.0230000000001</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>28.628</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3100,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1252.2270000000001</v>
+        <v>232.178</v>
       </c>
       <c r="O29">
-        <v>9994.5660000000007</v>
+        <v>2469.143</v>
       </c>
       <c r="P29">
-        <v>8484.7479999999996</v>
+        <v>2124.71</v>
       </c>
       <c r="Q29">
-        <v>169.017</v>
+        <v>291.81400000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40359</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>11237.932000000001</v>
+        <v>2031.8889999999999</v>
       </c>
       <c r="U29">
-        <v>192.578</v>
+        <v>342.62299999999999</v>
       </c>
       <c r="V29">
-        <v>162.239</v>
+        <v>85.872</v>
       </c>
       <c r="W29">
-        <v>-213.36799999999999</v>
+        <v>-54.542999999999999</v>
       </c>
       <c r="X29">
-        <v>242.97900000000001</v>
+        <v>349.673</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1.865</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>12.435</v>
+        <v>19.192</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40451</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>73.635000000000005</v>
+        <v>23.036000000000001</v>
       </c>
       <c r="D30">
-        <v>737.36900000000003</v>
+        <v>238.547</v>
       </c>
       <c r="E30">
-        <v>706.37300000000005</v>
+        <v>261.76499999999999</v>
       </c>
       <c r="F30">
-        <v>535.88800000000003</v>
+        <v>145.69499999999999</v>
       </c>
       <c r="G30">
-        <v>878.09400000000005</v>
+        <v>389.80799999999999</v>
       </c>
       <c r="H30">
-        <v>21404.345000000001</v>
+        <v>5170.8990000000003</v>
       </c>
       <c r="I30">
-        <v>800.31</v>
+        <v>218.60900000000001</v>
       </c>
       <c r="J30">
-        <v>8649.0480000000007</v>
+        <v>2356.4319999999998</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>236.715</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,78 +3183,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1402.48</v>
+        <v>586.37599999999998</v>
       </c>
       <c r="O30">
-        <v>10300.993</v>
+        <v>3122.03</v>
       </c>
       <c r="P30">
-        <v>8649.0480000000007</v>
+        <v>2721.5990000000002</v>
       </c>
       <c r="Q30">
-        <v>-197.15</v>
+        <v>-276.13</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40451</v>
       </c>
       <c r="S30">
-        <v>1436</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>11103.352000000001</v>
+        <v>2048.8690000000001</v>
       </c>
       <c r="U30">
-        <v>5.0999999999999997E-2</v>
+        <v>66.492999999999995</v>
       </c>
       <c r="V30">
-        <v>341.75400000000002</v>
+        <v>97.248999999999995</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-59.154000000000003</v>
       </c>
       <c r="X30">
-        <v>97.656000000000006</v>
+        <v>499.50700000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>50.002000000000002</v>
+        <v>-10.353999999999999</v>
       </c>
       <c r="AA30">
-        <v>73.635000000000005</v>
+        <v>23.036000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40543</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>106.627</v>
+        <v>35.220999999999997</v>
       </c>
       <c r="D31">
-        <v>751.77800000000002</v>
+        <v>239.93199999999999</v>
       </c>
       <c r="E31">
-        <v>752.21500000000003</v>
+        <v>260.404</v>
       </c>
       <c r="F31">
-        <v>482.96600000000001</v>
+        <v>164.81200000000001</v>
       </c>
       <c r="G31">
-        <v>850.27300000000002</v>
+        <v>332.185</v>
       </c>
       <c r="H31">
-        <v>21581.917000000001</v>
+        <v>5329.4830000000002</v>
       </c>
       <c r="I31">
-        <v>840.19</v>
+        <v>236.33099999999999</v>
       </c>
       <c r="J31">
-        <v>9147.7119999999995</v>
+        <v>2781.9540000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,167 +3263,167 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-183.65899999999999</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1222.116</v>
+        <v>313.84100000000001</v>
       </c>
       <c r="O31">
-        <v>10595.502</v>
+        <v>3274.82</v>
       </c>
       <c r="P31">
-        <v>9147.7119999999995</v>
+        <v>2806.9540000000002</v>
       </c>
       <c r="Q31">
-        <v>16.518999999999998</v>
+        <v>-54.774000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40543</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="T31">
-        <v>10986.415000000001</v>
+        <v>2054.663</v>
       </c>
       <c r="U31">
-        <v>22.37</v>
+        <v>11.718999999999999</v>
       </c>
       <c r="V31">
-        <v>236.99</v>
+        <v>118.708</v>
       </c>
       <c r="W31">
-        <v>-436.78699999999998</v>
+        <v>-7.6079999999999997</v>
       </c>
       <c r="X31">
-        <v>-43.213999999999999</v>
+        <v>104.846</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.223</v>
       </c>
       <c r="AA31">
-        <v>106.627</v>
+        <v>35.220999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40633</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>85.462999999999994</v>
+        <v>37.502000000000002</v>
       </c>
       <c r="D32">
-        <v>762.35699999999997</v>
+        <v>251.94900000000001</v>
       </c>
       <c r="E32">
-        <v>728.053</v>
+        <v>282.7</v>
       </c>
       <c r="F32">
-        <v>496.53899999999999</v>
+        <v>164.33699999999999</v>
       </c>
       <c r="G32">
-        <v>784.08900000000006</v>
+        <v>386.904</v>
       </c>
       <c r="H32">
-        <v>21411.422999999999</v>
+        <v>5537.3450000000003</v>
       </c>
       <c r="I32">
-        <v>869.83600000000001</v>
+        <v>264.41399999999999</v>
       </c>
       <c r="J32">
-        <v>9106.0840000000007</v>
+        <v>2640.5479999999998</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>225.83699999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-434.03300000000002</v>
       </c>
       <c r="N32">
-        <v>1239.086</v>
+        <v>680.59500000000003</v>
       </c>
       <c r="O32">
-        <v>10561.69</v>
+        <v>3498.2719999999999</v>
       </c>
       <c r="P32">
-        <v>9106.2420000000002</v>
+        <v>3055.4290000000001</v>
       </c>
       <c r="Q32">
-        <v>-2.6680000000000001</v>
+        <v>32.649000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40633</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10849.733</v>
+        <v>2039.0730000000001</v>
       </c>
       <c r="U32">
-        <v>17.588999999999999</v>
+        <v>44.368000000000002</v>
       </c>
       <c r="V32">
-        <v>436.09800000000001</v>
+        <v>64.489000000000004</v>
       </c>
       <c r="W32">
-        <v>-236.83799999999999</v>
+        <v>-123.98399999999999</v>
       </c>
       <c r="X32">
-        <v>-90.625</v>
+        <v>105.717</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.26700000000000002</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="AA32">
-        <v>85.462999999999994</v>
+        <v>37.502000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40724</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>87.596999999999994</v>
+        <v>36.703000000000003</v>
       </c>
       <c r="D33">
-        <v>777.81</v>
+        <v>268.93900000000002</v>
       </c>
       <c r="E33">
-        <v>763.12099999999998</v>
+        <v>301.99</v>
       </c>
       <c r="F33">
-        <v>484.68900000000002</v>
+        <v>170.70099999999999</v>
       </c>
       <c r="G33">
-        <v>847.654</v>
+        <v>386.81799999999998</v>
       </c>
       <c r="H33">
-        <v>21462.11</v>
+        <v>5658.4049999999997</v>
       </c>
       <c r="I33">
-        <v>901.03099999999995</v>
+        <v>281.584</v>
       </c>
       <c r="J33">
-        <v>9179.8709999999992</v>
+        <v>2693.5529999999999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>341.41699999999997</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3432,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1293.0219999999999</v>
+        <v>658.30799999999999</v>
       </c>
       <c r="O33">
-        <v>10681.094999999999</v>
+        <v>3524.5909999999999</v>
       </c>
       <c r="P33">
-        <v>9179.8950000000004</v>
+        <v>3067.5770000000002</v>
       </c>
       <c r="Q33">
-        <v>27.277999999999999</v>
+        <v>-16.468</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40724</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10781.014999999999</v>
+        <v>2133.8139999999999</v>
       </c>
       <c r="U33">
-        <v>46.241999999999997</v>
+        <v>27.9</v>
       </c>
       <c r="V33">
-        <v>360.76100000000002</v>
+        <v>125.23399999999999</v>
       </c>
       <c r="W33">
-        <v>-236.93299999999999</v>
+        <v>-75.290000000000006</v>
       </c>
       <c r="X33">
-        <v>-74.695999999999998</v>
+        <v>51.762</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.115</v>
+        <v>-0.125</v>
       </c>
       <c r="AA33">
-        <v>87.596999999999994</v>
+        <v>36.703000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40816</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>51.558999999999997</v>
+        <v>36.344000000000001</v>
       </c>
       <c r="D34">
-        <v>787.51199999999994</v>
+        <v>274.86599999999999</v>
       </c>
       <c r="E34">
-        <v>762.86900000000003</v>
+        <v>322.47199999999998</v>
       </c>
       <c r="F34">
-        <v>517.28</v>
+        <v>168.624</v>
       </c>
       <c r="G34">
-        <v>909.68799999999999</v>
+        <v>416.43400000000003</v>
       </c>
       <c r="H34">
-        <v>23766.695</v>
+        <v>5826.4120000000003</v>
       </c>
       <c r="I34">
-        <v>786.61300000000006</v>
+        <v>286.95999999999998</v>
       </c>
       <c r="J34">
-        <v>11101.478999999999</v>
+        <v>2488.607</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>163.113</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,78 +3515,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1388.874</v>
+        <v>595.39300000000003</v>
       </c>
       <c r="O34">
-        <v>12892.653</v>
+        <v>3249.5320000000002</v>
       </c>
       <c r="P34">
-        <v>11315.323</v>
+        <v>2797.04</v>
       </c>
       <c r="Q34">
-        <v>80.912000000000006</v>
+        <v>10.832000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40816</v>
       </c>
       <c r="S34">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>10874.041999999999</v>
+        <v>2576.88</v>
       </c>
       <c r="U34">
-        <v>126.7</v>
+        <v>38.731999999999999</v>
       </c>
       <c r="V34">
-        <v>351.47500000000002</v>
+        <v>90.375</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-77.683000000000007</v>
       </c>
       <c r="X34">
-        <v>1965.8040000000001</v>
+        <v>181.12100000000001</v>
       </c>
       <c r="Y34">
-        <v>202.18700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-0.21</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="AA34">
-        <v>51.558999999999997</v>
+        <v>36.344000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40908</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>116.812</v>
+        <v>45.716000000000001</v>
       </c>
       <c r="D35">
-        <v>823.73199999999997</v>
+        <v>271.90800000000002</v>
       </c>
       <c r="E35">
-        <v>807.649</v>
+        <v>337.39499999999998</v>
       </c>
       <c r="F35">
-        <v>525.97799999999995</v>
+        <v>177.76300000000001</v>
       </c>
       <c r="G35">
-        <v>945.51700000000005</v>
+        <v>433.19099999999997</v>
       </c>
       <c r="H35">
-        <v>23342.066999999999</v>
+        <v>6098.5659999999998</v>
       </c>
       <c r="I35">
-        <v>606.80700000000002</v>
+        <v>313.93299999999999</v>
       </c>
       <c r="J35">
-        <v>10279.656000000001</v>
+        <v>2940.21</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3595,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-3019.2310000000002</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>981.68399999999997</v>
+        <v>390.58800000000002</v>
       </c>
       <c r="O35">
-        <v>12341.89</v>
+        <v>3518.1550000000002</v>
       </c>
       <c r="P35">
-        <v>11172.89</v>
+        <v>2940.21</v>
       </c>
       <c r="Q35">
-        <v>-1.2130000000000001</v>
+        <v>1.899</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40908</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="T35">
-        <v>11000.177</v>
+        <v>2580.4110000000001</v>
       </c>
       <c r="U35">
-        <v>123.879</v>
+        <v>40.631</v>
       </c>
       <c r="V35">
-        <v>350.7</v>
+        <v>120.858</v>
       </c>
       <c r="W35">
-        <v>-472.72199999999998</v>
+        <v>-9.7260000000000009</v>
       </c>
       <c r="X35">
-        <v>-503.64400000000001</v>
+        <v>120.158</v>
       </c>
       <c r="Y35">
-        <v>887.88300000000004</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-25.048999999999999</v>
+        <v>-5.7569999999999997</v>
       </c>
       <c r="AA35">
-        <v>116.812</v>
+        <v>45.716000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40999</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>60.167999999999999</v>
+        <v>48.042000000000002</v>
       </c>
       <c r="D36">
-        <v>807.75900000000001</v>
+        <v>284.53699999999998</v>
       </c>
       <c r="E36">
-        <v>812.42399999999998</v>
+        <v>352.32900000000001</v>
       </c>
       <c r="F36">
-        <v>510.80399999999997</v>
+        <v>187.78</v>
       </c>
       <c r="G36">
-        <v>850.92700000000002</v>
+        <v>422.38200000000001</v>
       </c>
       <c r="H36">
-        <v>23430.091</v>
+        <v>6418.0609999999997</v>
       </c>
       <c r="I36">
-        <v>665.27800000000002</v>
+        <v>312.76799999999997</v>
       </c>
       <c r="J36">
-        <v>10842.578</v>
+        <v>3192.3029999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,81 +3678,81 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-199.01</v>
       </c>
       <c r="N36">
-        <v>1027.597</v>
+        <v>393.51299999999998</v>
       </c>
       <c r="O36">
-        <v>12939.027</v>
+        <v>3785.0770000000002</v>
       </c>
       <c r="P36">
-        <v>11731.868</v>
+        <v>3271.848</v>
       </c>
       <c r="Q36">
-        <v>-92.936999999999998</v>
+        <v>-14.388</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40999</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10491.064</v>
+        <v>2632.9839999999999</v>
       </c>
       <c r="U36">
-        <v>33.536000000000001</v>
+        <v>26.242999999999999</v>
       </c>
       <c r="V36">
-        <v>476.61200000000002</v>
+        <v>70.537000000000006</v>
       </c>
       <c r="W36">
-        <v>-251.82</v>
+        <v>-166.20400000000001</v>
       </c>
       <c r="X36">
-        <v>-19.286999999999999</v>
+        <v>231.904</v>
       </c>
       <c r="Y36">
-        <v>885.02</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-41.573</v>
+        <v>-3.7959999999999998</v>
       </c>
       <c r="AA36">
-        <v>60.167999999999999</v>
+        <v>48.042000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41090</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>66.497</v>
+        <v>52.334000000000003</v>
       </c>
       <c r="D37">
-        <v>787.197</v>
+        <v>307.197</v>
       </c>
       <c r="E37">
-        <v>776.22799999999995</v>
+        <v>376.58</v>
       </c>
       <c r="F37">
-        <v>486.40800000000002</v>
+        <v>198.648</v>
       </c>
       <c r="G37">
-        <v>1753.1780000000001</v>
+        <v>459.67899999999997</v>
       </c>
       <c r="H37">
-        <v>23172.764999999999</v>
+        <v>6717.1130000000003</v>
       </c>
       <c r="I37">
-        <v>629.495</v>
+        <v>371.274</v>
       </c>
       <c r="J37">
-        <v>10924.414000000001</v>
+        <v>3340.0360000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3764,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1020.547</v>
+        <v>433.15</v>
       </c>
       <c r="O37">
-        <v>12942.82</v>
+        <v>3978.9290000000001</v>
       </c>
       <c r="P37">
-        <v>11792.061</v>
+        <v>3400.212</v>
       </c>
       <c r="Q37">
-        <v>-25.667999999999999</v>
+        <v>21.533999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41090</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10229.945</v>
+        <v>2738.1840000000002</v>
       </c>
       <c r="U37">
-        <v>7.19</v>
+        <v>47.777000000000001</v>
       </c>
       <c r="V37">
-        <v>284.63200000000001</v>
+        <v>160.66300000000001</v>
       </c>
       <c r="W37">
-        <v>-251.517</v>
+        <v>-94.293999999999997</v>
       </c>
       <c r="X37">
-        <v>10.704000000000001</v>
+        <v>190.47399999999999</v>
       </c>
       <c r="Y37">
-        <v>844.43700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-14.801</v>
+        <v>-26.795999999999999</v>
       </c>
       <c r="AA37">
-        <v>66.497</v>
+        <v>52.334000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41182</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>336.28399999999999</v>
+        <v>55.392000000000003</v>
       </c>
       <c r="D38">
-        <v>798.62</v>
+        <v>343.99900000000002</v>
       </c>
       <c r="E38">
-        <v>784.245</v>
+        <v>447.56</v>
       </c>
       <c r="F38">
-        <v>509.68200000000002</v>
+        <v>218.23</v>
       </c>
       <c r="G38">
-        <v>1106.3920000000001</v>
+        <v>566.89200000000005</v>
       </c>
       <c r="H38">
-        <v>23068.131000000001</v>
+        <v>8512.598</v>
       </c>
       <c r="I38">
-        <v>669.51</v>
+        <v>523.04200000000003</v>
       </c>
       <c r="J38">
-        <v>10122.448</v>
+        <v>4076.308</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3847,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1369.877</v>
+        <v>619.80700000000002</v>
       </c>
       <c r="O38">
-        <v>12418.566000000001</v>
+        <v>4985.0420000000004</v>
       </c>
       <c r="P38">
-        <v>10994.073</v>
+        <v>4080.0729999999999</v>
       </c>
       <c r="Q38">
-        <v>81.849000000000004</v>
+        <v>28.338000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41182</v>
       </c>
       <c r="S38">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>10649.565000000001</v>
+        <v>3527.556</v>
       </c>
       <c r="U38">
-        <v>89.816999999999993</v>
+        <v>76.114999999999995</v>
       </c>
       <c r="V38">
-        <v>401.87299999999999</v>
+        <v>125.336</v>
       </c>
       <c r="W38">
-        <v>-20.707000000000001</v>
+        <v>-102.85299999999999</v>
       </c>
       <c r="X38">
-        <v>-759.79399999999998</v>
+        <v>1341.498</v>
       </c>
       <c r="Y38">
-        <v>777.46699999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-19.678000000000001</v>
+        <v>-6.4770000000000003</v>
       </c>
       <c r="AA38">
-        <v>336.28399999999999</v>
+        <v>55.392000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41274</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>224.01400000000001</v>
+        <v>54.566000000000003</v>
       </c>
       <c r="D39">
-        <v>744.34100000000001</v>
+        <v>351.46899999999999</v>
       </c>
       <c r="E39">
-        <v>1011.878</v>
+        <v>490.00099999999998</v>
       </c>
       <c r="F39">
-        <v>376.16199999999998</v>
+        <v>220.17699999999999</v>
       </c>
       <c r="G39">
-        <v>1258.3579999999999</v>
+        <v>590.33199999999999</v>
       </c>
       <c r="H39">
-        <v>33113.300000000003</v>
+        <v>8819.2139999999999</v>
       </c>
       <c r="I39">
-        <v>1051.2180000000001</v>
+        <v>644.72699999999998</v>
       </c>
       <c r="J39">
-        <v>12251.332</v>
+        <v>4245.5649999999996</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3927,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-2346.0529999999999</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2068.9009999999998</v>
+        <v>772.86099999999999</v>
       </c>
       <c r="O39">
-        <v>15896.733</v>
+        <v>5320.83</v>
       </c>
       <c r="P39">
-        <v>13682.624</v>
+        <v>4278.5649999999996</v>
       </c>
       <c r="Q39">
-        <v>161.446</v>
+        <v>-19.834</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41274</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="T39">
-        <v>17216.566999999999</v>
+        <v>3498.384</v>
       </c>
       <c r="U39">
-        <v>246.48</v>
+        <v>56.280999999999999</v>
       </c>
       <c r="V39">
-        <v>226.66</v>
+        <v>186.41200000000001</v>
       </c>
       <c r="W39">
-        <v>-551.40499999999997</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>91.01</v>
+        <v>184.75899999999999</v>
       </c>
       <c r="Y39">
-        <v>1431.2919999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-77.5</v>
+        <v>-17.757999999999999</v>
       </c>
       <c r="AA39">
-        <v>224.01400000000001</v>
+        <v>54.566000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41364</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>74.831000000000003</v>
+        <v>50.710999999999999</v>
       </c>
       <c r="D40">
-        <v>985.36300000000006</v>
+        <v>360.70499999999998</v>
       </c>
       <c r="E40">
-        <v>1039.434</v>
+        <v>518.70399999999995</v>
       </c>
       <c r="F40">
-        <v>604.27499999999998</v>
+        <v>232.036</v>
       </c>
       <c r="G40">
-        <v>1569.4480000000001</v>
+        <v>604.76300000000003</v>
       </c>
       <c r="H40">
-        <v>33862.637999999999</v>
+        <v>8971.4920000000002</v>
       </c>
       <c r="I40">
-        <v>1152.4390000000001</v>
+        <v>519.83699999999999</v>
       </c>
       <c r="J40">
-        <v>12381.728999999999</v>
+        <v>4463.47</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +4010,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-660.99099999999999</v>
       </c>
       <c r="N40">
-        <v>2166.6729999999998</v>
+        <v>832.19100000000003</v>
       </c>
       <c r="O40">
-        <v>16139.405000000001</v>
+        <v>5589.5439999999999</v>
       </c>
       <c r="P40">
-        <v>13833.523999999999</v>
+        <v>4682.1239999999998</v>
       </c>
       <c r="Q40">
-        <v>260.334</v>
+        <v>-14.151</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41364</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>17723.233</v>
+        <v>3381.9479999999999</v>
       </c>
       <c r="U40">
-        <v>505.17399999999998</v>
+        <v>42.13</v>
       </c>
       <c r="V40">
-        <v>485.71</v>
+        <v>89.040999999999997</v>
       </c>
       <c r="W40">
-        <v>-341.50599999999997</v>
+        <v>-203.994</v>
       </c>
       <c r="X40">
-        <v>313.81799999999998</v>
+        <v>252.446</v>
       </c>
       <c r="Y40">
-        <v>1451.152</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>53.35</v>
+        <v>-18.196000000000002</v>
       </c>
       <c r="AA40">
-        <v>74.831000000000003</v>
+        <v>50.710999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41455</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-0.13800000000000001</v>
+        <v>58.475999999999999</v>
       </c>
       <c r="D41">
-        <v>1022.612</v>
+        <v>365.83199999999999</v>
       </c>
       <c r="E41">
-        <v>1096.133</v>
+        <v>520.43499999999995</v>
       </c>
       <c r="F41">
-        <v>621.274</v>
+        <v>237.96700000000001</v>
       </c>
       <c r="G41">
-        <v>2082.7220000000002</v>
+        <v>583.67200000000003</v>
       </c>
       <c r="H41">
-        <v>35435.332999999999</v>
+        <v>9184.8590000000004</v>
       </c>
       <c r="I41">
-        <v>1480.723</v>
+        <v>534.36599999999999</v>
       </c>
       <c r="J41">
-        <v>12877.897999999999</v>
+        <v>4482.848</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,129 +4096,2536 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2538.36</v>
+        <v>833.16600000000005</v>
       </c>
       <c r="O41">
-        <v>16995.580999999998</v>
+        <v>5601.5889999999999</v>
       </c>
       <c r="P41">
-        <v>14322.022000000001</v>
+        <v>4698.2479999999996</v>
       </c>
       <c r="Q41">
-        <v>467.55599999999998</v>
+        <v>-17.87</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41455</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>18439.752</v>
+        <v>3583.27</v>
       </c>
       <c r="U41">
-        <v>971.30499999999995</v>
+        <v>24.26</v>
       </c>
       <c r="V41">
-        <v>468.36900000000003</v>
+        <v>186.46600000000001</v>
       </c>
       <c r="W41">
-        <v>-332.63600000000002</v>
+        <v>-113.90600000000001</v>
       </c>
       <c r="X41">
-        <v>826.322</v>
+        <v>152.274</v>
       </c>
       <c r="Y41">
-        <v>1444.06</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-34.728999999999999</v>
+        <v>-4.5579999999999998</v>
       </c>
       <c r="AA41">
-        <v>-0.13800000000000001</v>
+        <v>58.475999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41547</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>150.59800000000001</v>
       </c>
       <c r="D42">
+        <v>381.63</v>
+      </c>
+      <c r="E42">
+        <v>561.69399999999996</v>
+      </c>
+      <c r="F42">
+        <v>226.02799999999999</v>
+      </c>
+      <c r="G42">
+        <v>659.26900000000001</v>
+      </c>
+      <c r="H42">
+        <v>9426.0409999999993</v>
+      </c>
+      <c r="I42">
+        <v>577.91999999999996</v>
+      </c>
+      <c r="J42">
+        <v>4620.6459999999997</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>812.471</v>
+      </c>
+      <c r="O42">
+        <v>5745.4719999999998</v>
+      </c>
+      <c r="P42">
+        <v>4780.3969999999999</v>
+      </c>
+      <c r="Q42">
+        <v>30.858000000000001</v>
+      </c>
+      <c r="R42">
+        <v>41547</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3680.569</v>
+      </c>
+      <c r="U42">
+        <v>55.118000000000002</v>
+      </c>
+      <c r="V42">
+        <v>178.57300000000001</v>
+      </c>
+      <c r="W42">
+        <v>-114.232</v>
+      </c>
+      <c r="X42">
+        <v>-127.462</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>326.92599999999999</v>
+      </c>
+      <c r="AA42">
+        <v>150.59800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>54.703000000000003</v>
+      </c>
+      <c r="D43">
+        <v>383.88799999999998</v>
+      </c>
+      <c r="E43">
+        <v>515.75199999999995</v>
+      </c>
+      <c r="F43">
+        <v>243.738</v>
+      </c>
+      <c r="G43">
+        <v>612.92200000000003</v>
+      </c>
+      <c r="H43">
+        <v>9626.83</v>
+      </c>
+      <c r="I43">
+        <v>660.98699999999997</v>
+      </c>
+      <c r="J43">
+        <v>4695.4920000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1031.596</v>
+      </c>
+      <c r="O43">
+        <v>5980.3180000000002</v>
+      </c>
+      <c r="P43">
+        <v>4961.8919999999998</v>
+      </c>
+      <c r="Q43">
+        <v>1.69</v>
+      </c>
+      <c r="R43">
+        <v>41639</v>
+      </c>
+      <c r="S43">
+        <v>784</v>
+      </c>
+      <c r="T43">
+        <v>3646.5120000000002</v>
+      </c>
+      <c r="U43">
+        <v>56.808</v>
+      </c>
+      <c r="V43">
+        <v>202.31</v>
+      </c>
+      <c r="W43">
+        <v>-11.726000000000001</v>
+      </c>
+      <c r="X43">
+        <v>127.488</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-17.155000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>54.703000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>45.911999999999999</v>
+      </c>
+      <c r="D44">
+        <v>393.17099999999999</v>
+      </c>
+      <c r="E44">
+        <v>596.94799999999998</v>
+      </c>
+      <c r="F44">
+        <v>253.06899999999999</v>
+      </c>
+      <c r="G44">
+        <v>735.10199999999998</v>
+      </c>
+      <c r="H44">
+        <v>9805.3940000000002</v>
+      </c>
+      <c r="I44">
+        <v>552.64499999999998</v>
+      </c>
+      <c r="J44">
+        <v>4565.1639999999998</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-374.69400000000002</v>
+      </c>
+      <c r="N44">
+        <v>1060.472</v>
+      </c>
+      <c r="O44">
+        <v>5929.674</v>
+      </c>
+      <c r="P44">
+        <v>5007.3810000000003</v>
+      </c>
+      <c r="Q44">
+        <v>13.433999999999999</v>
+      </c>
+      <c r="R44">
+        <v>41729</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3875.72</v>
+      </c>
+      <c r="U44">
+        <v>70.242000000000004</v>
+      </c>
+      <c r="V44">
+        <v>116.411</v>
+      </c>
+      <c r="W44">
+        <v>-223.613</v>
+      </c>
+      <c r="X44">
+        <v>124.56699999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AA44">
+        <v>45.911999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>60.338999999999999</v>
+      </c>
+      <c r="D45">
+        <v>404.923</v>
+      </c>
+      <c r="E45">
+        <v>597.93799999999999</v>
+      </c>
+      <c r="F45">
+        <v>256.77699999999999</v>
+      </c>
+      <c r="G45">
+        <v>718.64200000000005</v>
+      </c>
+      <c r="H45">
+        <v>9910.2309999999998</v>
+      </c>
+      <c r="I45">
+        <v>574.08299999999997</v>
+      </c>
+      <c r="J45">
+        <v>4685.4290000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>810.58900000000006</v>
+      </c>
+      <c r="O45">
+        <v>5775.95</v>
+      </c>
+      <c r="P45">
+        <v>4859.2349999999997</v>
+      </c>
+      <c r="Q45">
+        <v>10.683999999999999</v>
+      </c>
+      <c r="R45">
+        <v>41820</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4134.2809999999999</v>
+      </c>
+      <c r="U45">
+        <v>80.926000000000002</v>
+      </c>
+      <c r="V45">
+        <v>198.85300000000001</v>
+      </c>
+      <c r="W45">
+        <v>-133.714</v>
+      </c>
+      <c r="X45">
+        <v>-11.897</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-10.061</v>
+      </c>
+      <c r="AA45">
+        <v>60.338999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>127.76900000000001</v>
+      </c>
+      <c r="D46">
+        <v>415.64100000000002</v>
+      </c>
+      <c r="E46">
+        <v>582.82100000000003</v>
+      </c>
+      <c r="F46">
+        <v>258.83800000000002</v>
+      </c>
+      <c r="G46">
+        <v>633.33500000000004</v>
+      </c>
+      <c r="H46">
+        <v>9722.0069999999996</v>
+      </c>
+      <c r="I46">
+        <v>582.01400000000001</v>
+      </c>
+      <c r="J46">
+        <v>4701.5410000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>686.50199999999995</v>
+      </c>
+      <c r="O46">
+        <v>5618.4470000000001</v>
+      </c>
+      <c r="P46">
+        <v>4739.7290000000003</v>
+      </c>
+      <c r="Q46">
+        <v>-43.271000000000001</v>
+      </c>
+      <c r="R46">
+        <v>41912</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4103.5600000000004</v>
+      </c>
+      <c r="U46">
+        <v>36.527999999999999</v>
+      </c>
+      <c r="V46">
+        <v>157.303</v>
+      </c>
+      <c r="W46">
+        <v>-133.41800000000001</v>
+      </c>
+      <c r="X46">
+        <v>-139.50399999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>167.52600000000001</v>
+      </c>
+      <c r="AA46">
+        <v>127.76900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-33.837000000000003</v>
+      </c>
+      <c r="D47">
+        <v>415.99200000000002</v>
+      </c>
+      <c r="E47">
+        <v>583.57399999999996</v>
+      </c>
+      <c r="F47">
+        <v>265.06200000000001</v>
+      </c>
+      <c r="G47">
+        <v>756.92100000000005</v>
+      </c>
+      <c r="H47">
+        <v>9526.7839999999997</v>
+      </c>
+      <c r="I47">
+        <v>604.22299999999996</v>
+      </c>
+      <c r="J47">
+        <v>4673.1270000000004</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>835.18399999999997</v>
+      </c>
+      <c r="O47">
+        <v>5612.5460000000003</v>
+      </c>
+      <c r="P47">
+        <v>4673.1270000000004</v>
+      </c>
+      <c r="Q47">
+        <v>3.887</v>
+      </c>
+      <c r="R47">
+        <v>42004</v>
+      </c>
+      <c r="S47">
+        <v>860</v>
+      </c>
+      <c r="T47">
+        <v>3914.2379999999998</v>
+      </c>
+      <c r="U47">
+        <v>34.814</v>
+      </c>
+      <c r="V47">
+        <v>183.321</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>31.637</v>
+      </c>
+      <c r="AA47">
+        <v>-33.837000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>120.18300000000001</v>
+      </c>
+      <c r="D48">
+        <v>411.22699999999998</v>
+      </c>
+      <c r="E48">
+        <v>568.82899999999995</v>
+      </c>
+      <c r="F48">
+        <v>263.30799999999999</v>
+      </c>
+      <c r="G48">
+        <v>699.75900000000001</v>
+      </c>
+      <c r="H48">
+        <v>9408.4259999999995</v>
+      </c>
+      <c r="I48">
+        <v>509.44799999999998</v>
+      </c>
+      <c r="J48">
+        <v>4744.674</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-282.72300000000001</v>
+      </c>
+      <c r="N48">
+        <v>600.41300000000001</v>
+      </c>
+      <c r="O48">
+        <v>5550.5649999999996</v>
+      </c>
+      <c r="P48">
+        <v>4817.9110000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-3.992</v>
+      </c>
+      <c r="R48">
+        <v>42094</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3857.8609999999999</v>
+      </c>
+      <c r="U48">
+        <v>37.329000000000001</v>
+      </c>
+      <c r="V48">
+        <v>138.922</v>
+      </c>
+      <c r="W48">
+        <v>-251.333</v>
+      </c>
+      <c r="X48">
+        <v>6.1559999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-7.5469999999999997</v>
+      </c>
+      <c r="AA48">
+        <v>120.18300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>135.511</v>
+      </c>
+      <c r="D49">
+        <v>423.678</v>
+      </c>
+      <c r="E49">
+        <v>593.99599999999998</v>
+      </c>
+      <c r="F49">
+        <v>270.07299999999998</v>
+      </c>
+      <c r="G49">
+        <v>834.53200000000004</v>
+      </c>
+      <c r="H49">
+        <v>9586.009</v>
+      </c>
+      <c r="I49">
+        <v>501.73200000000003</v>
+      </c>
+      <c r="J49">
+        <v>4897.7740000000003</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>594.72500000000002</v>
+      </c>
+      <c r="O49">
+        <v>5695.8159999999998</v>
+      </c>
+      <c r="P49">
+        <v>4968.826</v>
+      </c>
+      <c r="Q49">
+        <v>21.823</v>
+      </c>
+      <c r="R49">
+        <v>42185</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3890.1930000000002</v>
+      </c>
+      <c r="U49">
+        <v>59.152000000000001</v>
+      </c>
+      <c r="V49">
+        <v>216.22900000000001</v>
+      </c>
+      <c r="W49">
+        <v>-136.34700000000001</v>
+      </c>
+      <c r="X49">
+        <v>-101.617</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>135.511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>56.978000000000002</v>
+      </c>
+      <c r="D50">
+        <v>440.15800000000002</v>
+      </c>
+      <c r="E50">
+        <v>633.79</v>
+      </c>
+      <c r="F50">
+        <v>268.625</v>
+      </c>
+      <c r="G50">
+        <v>842.74900000000002</v>
+      </c>
+      <c r="H50">
+        <v>9501.0130000000008</v>
+      </c>
+      <c r="I50">
+        <v>513.55499999999995</v>
+      </c>
+      <c r="J50">
+        <v>4721.8109999999997</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>547.21500000000003</v>
+      </c>
+      <c r="O50">
+        <v>5465.3620000000001</v>
+      </c>
+      <c r="P50">
+        <v>4748.5789999999997</v>
+      </c>
+      <c r="Q50">
+        <v>-29.646999999999998</v>
+      </c>
+      <c r="R50">
+        <v>42277</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4035.6509999999998</v>
+      </c>
+      <c r="U50">
+        <v>22.998000000000001</v>
+      </c>
+      <c r="V50">
+        <v>184.05600000000001</v>
+      </c>
+      <c r="W50">
+        <v>-136.5</v>
+      </c>
+      <c r="X50">
+        <v>-30.321000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>56.978000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-15.983000000000001</v>
+      </c>
+      <c r="D51">
+        <v>503.76400000000001</v>
+      </c>
+      <c r="E51">
+        <v>580.72500000000002</v>
+      </c>
+      <c r="F51">
+        <v>316.94799999999998</v>
+      </c>
+      <c r="G51">
+        <v>837.495</v>
+      </c>
+      <c r="H51">
+        <v>11416.063</v>
+      </c>
+      <c r="I51">
+        <v>606.61699999999996</v>
+      </c>
+      <c r="J51">
+        <v>5899.4530000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>878.99400000000003</v>
+      </c>
+      <c r="O51">
+        <v>6879.5609999999997</v>
+      </c>
+      <c r="P51">
+        <v>5899.4629999999997</v>
+      </c>
+      <c r="Q51">
+        <v>34.055</v>
+      </c>
+      <c r="R51">
+        <v>42369</v>
+      </c>
+      <c r="S51">
+        <v>1295</v>
+      </c>
+      <c r="T51">
+        <v>4536.5020000000004</v>
+      </c>
+      <c r="U51">
+        <v>57.052999999999997</v>
+      </c>
+      <c r="V51">
+        <v>260.02499999999998</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1874.8109999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-3.25</v>
+      </c>
+      <c r="AA51">
+        <v>-15.983000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>61.548999999999999</v>
+      </c>
+      <c r="D52">
+        <v>508.27699999999999</v>
+      </c>
+      <c r="E52">
+        <v>593.03499999999997</v>
+      </c>
+      <c r="F52">
+        <v>324.87799999999999</v>
+      </c>
+      <c r="G52">
+        <v>788.85500000000002</v>
+      </c>
+      <c r="H52">
+        <v>11421.975</v>
+      </c>
+      <c r="I52">
+        <v>440.65199999999999</v>
+      </c>
+      <c r="J52">
+        <v>6156.73</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-1204.201</v>
+      </c>
+      <c r="N52">
+        <v>723.56</v>
+      </c>
+      <c r="O52">
+        <v>6976.7650000000003</v>
+      </c>
+      <c r="P52">
+        <v>6156.73</v>
+      </c>
+      <c r="Q52">
+        <v>-24.329000000000001</v>
+      </c>
+      <c r="R52">
+        <v>42460</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4445.21</v>
+      </c>
+      <c r="U52">
+        <v>31.134</v>
+      </c>
+      <c r="V52">
+        <v>180.614</v>
+      </c>
+      <c r="W52">
+        <v>-280.899</v>
+      </c>
+      <c r="X52">
+        <v>-50.814999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="AA52">
+        <v>61.548999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>50.375</v>
+      </c>
+      <c r="D53">
+        <v>519.06600000000003</v>
+      </c>
+      <c r="E53">
+        <v>574.05999999999995</v>
+      </c>
+      <c r="F53">
+        <v>328.45400000000001</v>
+      </c>
+      <c r="G53">
+        <v>847.90200000000004</v>
+      </c>
+      <c r="H53">
+        <v>11292.375</v>
+      </c>
+      <c r="I53">
+        <v>438.71</v>
+      </c>
+      <c r="J53">
+        <v>6135.4059999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>611.702</v>
+      </c>
+      <c r="O53">
+        <v>6966.7330000000002</v>
+      </c>
+      <c r="P53">
+        <v>6135.4059999999999</v>
+      </c>
+      <c r="Q53">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="R53">
+        <v>42551</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4325.6419999999998</v>
+      </c>
+      <c r="U53">
+        <v>33.241</v>
+      </c>
+      <c r="V53">
+        <v>216.01900000000001</v>
+      </c>
+      <c r="W53">
+        <v>-153.96799999999999</v>
+      </c>
+      <c r="X53">
+        <v>-69.091999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>50.375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>219.18799999999999</v>
+      </c>
+      <c r="D54">
+        <v>550.44500000000005</v>
+      </c>
+      <c r="E54">
+        <v>621.07399999999996</v>
+      </c>
+      <c r="F54">
+        <v>346.61799999999999</v>
+      </c>
+      <c r="G54">
+        <v>725.11900000000003</v>
+      </c>
+      <c r="H54">
+        <v>12299.035</v>
+      </c>
+      <c r="I54">
+        <v>655.10500000000002</v>
+      </c>
+      <c r="J54">
+        <v>6024.9870000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>990.51199999999994</v>
+      </c>
+      <c r="O54">
+        <v>7102.3869999999997</v>
+      </c>
+      <c r="P54">
+        <v>6024.9870000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-3.4079999999999999</v>
+      </c>
+      <c r="R54">
+        <v>42643</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5196.6480000000001</v>
+      </c>
+      <c r="U54">
+        <v>36.445</v>
+      </c>
+      <c r="V54">
+        <v>230.42</v>
+      </c>
+      <c r="W54">
+        <v>-153.131</v>
+      </c>
+      <c r="X54">
+        <v>540.64200000000005</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA54">
+        <v>219.18799999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>95.075000000000003</v>
+      </c>
+      <c r="D55">
+        <v>581.529</v>
+      </c>
+      <c r="E55">
+        <v>616.20699999999999</v>
+      </c>
+      <c r="F55">
+        <v>376.20299999999997</v>
+      </c>
+      <c r="G55">
+        <v>707.45600000000002</v>
+      </c>
+      <c r="H55">
+        <v>12192.584999999999</v>
+      </c>
+      <c r="I55">
+        <v>817.27</v>
+      </c>
+      <c r="J55">
+        <v>5840.4250000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1137.9639999999999</v>
+      </c>
+      <c r="O55">
+        <v>7060.2879999999996</v>
+      </c>
+      <c r="P55">
+        <v>5840.5150000000003</v>
+      </c>
+      <c r="Q55">
+        <v>-26.094000000000001</v>
+      </c>
+      <c r="R55">
+        <v>42735</v>
+      </c>
+      <c r="S55">
+        <v>1345</v>
+      </c>
+      <c r="T55">
+        <v>5132.2969999999996</v>
+      </c>
+      <c r="U55">
+        <v>10.528</v>
+      </c>
+      <c r="V55">
+        <v>284.18900000000002</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-70.117999999999995</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>95.075000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>83.537999999999997</v>
+      </c>
+      <c r="D56">
+        <v>555.89300000000003</v>
+      </c>
+      <c r="E56">
+        <v>614.26400000000001</v>
+      </c>
+      <c r="F56">
+        <v>356.31200000000001</v>
+      </c>
+      <c r="G56">
+        <v>710.178</v>
+      </c>
+      <c r="H56">
+        <v>12329.548000000001</v>
+      </c>
+      <c r="I56">
+        <v>647.41600000000005</v>
+      </c>
+      <c r="J56">
+        <v>6202.8789999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-408.351</v>
+      </c>
+      <c r="N56">
+        <v>977.58299999999997</v>
+      </c>
+      <c r="O56">
+        <v>7259.1030000000001</v>
+      </c>
+      <c r="P56">
+        <v>6202.884</v>
+      </c>
+      <c r="Q56">
+        <v>3.3610000000000002</v>
+      </c>
+      <c r="R56">
+        <v>42825</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5070.4449999999997</v>
+      </c>
+      <c r="U56">
+        <v>14.95</v>
+      </c>
+      <c r="V56">
+        <v>219.066</v>
+      </c>
+      <c r="W56">
+        <v>-312.49799999999999</v>
+      </c>
+      <c r="X56">
+        <v>-2.891</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-5.7489999999999997</v>
+      </c>
+      <c r="AA56">
+        <v>83.537999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>78.650999999999996</v>
+      </c>
+      <c r="D57">
+        <v>574.37699999999995</v>
+      </c>
+      <c r="E57">
+        <v>652.63800000000003</v>
+      </c>
+      <c r="F57">
+        <v>357.26499999999999</v>
+      </c>
+      <c r="G57">
+        <v>798.18200000000002</v>
+      </c>
+      <c r="H57">
+        <v>12579.571</v>
+      </c>
+      <c r="I57">
+        <v>688.55499999999995</v>
+      </c>
+      <c r="J57">
+        <v>6438.7669999999998</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1033.4110000000001</v>
+      </c>
+      <c r="O57">
+        <v>7548.277</v>
+      </c>
+      <c r="P57">
+        <v>6438.7669999999998</v>
+      </c>
+      <c r="Q57">
+        <v>15.917</v>
+      </c>
+      <c r="R57">
+        <v>42916</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5031.2939999999999</v>
+      </c>
+      <c r="U57">
+        <v>22.382999999999999</v>
+      </c>
+      <c r="V57">
+        <v>300.24599999999998</v>
+      </c>
+      <c r="W57">
+        <v>-167.619</v>
+      </c>
+      <c r="X57">
+        <v>-16.544</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>78.650999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>12.435</v>
+      </c>
+      <c r="D58">
+        <v>615.80499999999995</v>
+      </c>
+      <c r="E58">
+        <v>678.83799999999997</v>
+      </c>
+      <c r="F58">
+        <v>350.34899999999999</v>
+      </c>
+      <c r="G58">
+        <v>1035.4849999999999</v>
+      </c>
+      <c r="H58">
+        <v>21232.498</v>
+      </c>
+      <c r="I58">
+        <v>857.49</v>
+      </c>
+      <c r="J58">
+        <v>8484.607</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1252.2270000000001</v>
+      </c>
+      <c r="O58">
+        <v>9994.5660000000007</v>
+      </c>
+      <c r="P58">
+        <v>8484.7479999999996</v>
+      </c>
+      <c r="Q58">
+        <v>169.017</v>
+      </c>
+      <c r="R58">
+        <v>43008</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>11237.932000000001</v>
+      </c>
+      <c r="U58">
+        <v>192.578</v>
+      </c>
+      <c r="V58">
+        <v>162.239</v>
+      </c>
+      <c r="W58">
+        <v>-213.36799999999999</v>
+      </c>
+      <c r="X58">
+        <v>242.97900000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-1.865</v>
+      </c>
+      <c r="AA58">
+        <v>12.435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>73.635000000000005</v>
+      </c>
+      <c r="D59">
+        <v>737.36900000000003</v>
+      </c>
+      <c r="E59">
+        <v>706.37300000000005</v>
+      </c>
+      <c r="F59">
+        <v>535.88800000000003</v>
+      </c>
+      <c r="G59">
+        <v>878.09400000000005</v>
+      </c>
+      <c r="H59">
+        <v>21404.345000000001</v>
+      </c>
+      <c r="I59">
+        <v>800.31</v>
+      </c>
+      <c r="J59">
+        <v>8649.0480000000007</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1402.48</v>
+      </c>
+      <c r="O59">
+        <v>10300.993</v>
+      </c>
+      <c r="P59">
+        <v>8649.0480000000007</v>
+      </c>
+      <c r="Q59">
+        <v>-197.15</v>
+      </c>
+      <c r="R59">
+        <v>43100</v>
+      </c>
+      <c r="S59">
+        <v>1436</v>
+      </c>
+      <c r="T59">
+        <v>11103.352000000001</v>
+      </c>
+      <c r="U59">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V59">
+        <v>341.75400000000002</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>97.656000000000006</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>50.002000000000002</v>
+      </c>
+      <c r="AA59">
+        <v>73.635000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>106.627</v>
+      </c>
+      <c r="D60">
+        <v>751.77800000000002</v>
+      </c>
+      <c r="E60">
+        <v>752.21500000000003</v>
+      </c>
+      <c r="F60">
+        <v>482.96600000000001</v>
+      </c>
+      <c r="G60">
+        <v>850.27300000000002</v>
+      </c>
+      <c r="H60">
+        <v>21581.917000000001</v>
+      </c>
+      <c r="I60">
+        <v>840.19</v>
+      </c>
+      <c r="J60">
+        <v>9147.7119999999995</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-183.65899999999999</v>
+      </c>
+      <c r="N60">
+        <v>1222.116</v>
+      </c>
+      <c r="O60">
+        <v>10595.502</v>
+      </c>
+      <c r="P60">
+        <v>9147.7119999999995</v>
+      </c>
+      <c r="Q60">
+        <v>16.518999999999998</v>
+      </c>
+      <c r="R60">
+        <v>43190</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>10986.415000000001</v>
+      </c>
+      <c r="U60">
+        <v>22.37</v>
+      </c>
+      <c r="V60">
+        <v>236.99</v>
+      </c>
+      <c r="W60">
+        <v>-436.78699999999998</v>
+      </c>
+      <c r="X60">
+        <v>-43.213999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="AA60">
+        <v>106.627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>85.462999999999994</v>
+      </c>
+      <c r="D61">
+        <v>762.35699999999997</v>
+      </c>
+      <c r="E61">
+        <v>728.053</v>
+      </c>
+      <c r="F61">
+        <v>496.53899999999999</v>
+      </c>
+      <c r="G61">
+        <v>784.08900000000006</v>
+      </c>
+      <c r="H61">
+        <v>21411.422999999999</v>
+      </c>
+      <c r="I61">
+        <v>869.83600000000001</v>
+      </c>
+      <c r="J61">
+        <v>9106.0840000000007</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1239.086</v>
+      </c>
+      <c r="O61">
+        <v>10561.69</v>
+      </c>
+      <c r="P61">
+        <v>9106.2420000000002</v>
+      </c>
+      <c r="Q61">
+        <v>-2.6680000000000001</v>
+      </c>
+      <c r="R61">
+        <v>43281</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>10849.733</v>
+      </c>
+      <c r="U61">
+        <v>17.588999999999999</v>
+      </c>
+      <c r="V61">
+        <v>436.09800000000001</v>
+      </c>
+      <c r="W61">
+        <v>-236.83799999999999</v>
+      </c>
+      <c r="X61">
+        <v>-90.625</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AA61">
+        <v>85.462999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>87.596999999999994</v>
+      </c>
+      <c r="D62">
+        <v>777.81</v>
+      </c>
+      <c r="E62">
+        <v>763.12099999999998</v>
+      </c>
+      <c r="F62">
+        <v>484.68900000000002</v>
+      </c>
+      <c r="G62">
+        <v>847.654</v>
+      </c>
+      <c r="H62">
+        <v>21462.11</v>
+      </c>
+      <c r="I62">
+        <v>901.03099999999995</v>
+      </c>
+      <c r="J62">
+        <v>9179.8709999999992</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1293.0219999999999</v>
+      </c>
+      <c r="O62">
+        <v>10681.094999999999</v>
+      </c>
+      <c r="P62">
+        <v>9179.8950000000004</v>
+      </c>
+      <c r="Q62">
+        <v>27.277999999999999</v>
+      </c>
+      <c r="R62">
+        <v>43373</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>10781.014999999999</v>
+      </c>
+      <c r="U62">
+        <v>46.241999999999997</v>
+      </c>
+      <c r="V62">
+        <v>360.76100000000002</v>
+      </c>
+      <c r="W62">
+        <v>-236.93299999999999</v>
+      </c>
+      <c r="X62">
+        <v>-74.695999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-0.115</v>
+      </c>
+      <c r="AA62">
+        <v>87.596999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>51.558999999999997</v>
+      </c>
+      <c r="D63">
+        <v>787.51199999999994</v>
+      </c>
+      <c r="E63">
+        <v>762.86900000000003</v>
+      </c>
+      <c r="F63">
+        <v>517.28</v>
+      </c>
+      <c r="G63">
+        <v>909.68799999999999</v>
+      </c>
+      <c r="H63">
+        <v>23766.695</v>
+      </c>
+      <c r="I63">
+        <v>786.61300000000006</v>
+      </c>
+      <c r="J63">
+        <v>11101.478999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1388.874</v>
+      </c>
+      <c r="O63">
+        <v>12892.653</v>
+      </c>
+      <c r="P63">
+        <v>11315.323</v>
+      </c>
+      <c r="Q63">
+        <v>80.912000000000006</v>
+      </c>
+      <c r="R63">
+        <v>43465</v>
+      </c>
+      <c r="S63">
+        <v>1530</v>
+      </c>
+      <c r="T63">
+        <v>10874.041999999999</v>
+      </c>
+      <c r="U63">
+        <v>126.7</v>
+      </c>
+      <c r="V63">
+        <v>351.47500000000002</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1965.8040000000001</v>
+      </c>
+      <c r="Y63">
+        <v>202.18700000000001</v>
+      </c>
+      <c r="Z63">
+        <v>-0.21</v>
+      </c>
+      <c r="AA63">
+        <v>51.558999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>116.812</v>
+      </c>
+      <c r="D64">
+        <v>823.73199999999997</v>
+      </c>
+      <c r="E64">
+        <v>807.649</v>
+      </c>
+      <c r="F64">
+        <v>525.97799999999995</v>
+      </c>
+      <c r="G64">
+        <v>945.51700000000005</v>
+      </c>
+      <c r="H64">
+        <v>23342.066999999999</v>
+      </c>
+      <c r="I64">
+        <v>606.80700000000002</v>
+      </c>
+      <c r="J64">
+        <v>10279.656000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-3019.2310000000002</v>
+      </c>
+      <c r="N64">
+        <v>981.68399999999997</v>
+      </c>
+      <c r="O64">
+        <v>12341.89</v>
+      </c>
+      <c r="P64">
+        <v>11172.89</v>
+      </c>
+      <c r="Q64">
+        <v>-1.2130000000000001</v>
+      </c>
+      <c r="R64">
+        <v>43555</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>11000.177</v>
+      </c>
+      <c r="U64">
+        <v>123.879</v>
+      </c>
+      <c r="V64">
+        <v>350.7</v>
+      </c>
+      <c r="W64">
+        <v>-472.72199999999998</v>
+      </c>
+      <c r="X64">
+        <v>-503.64400000000001</v>
+      </c>
+      <c r="Y64">
+        <v>887.88300000000004</v>
+      </c>
+      <c r="Z64">
+        <v>-25.048999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>116.812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>60.167999999999999</v>
+      </c>
+      <c r="D65">
+        <v>807.75900000000001</v>
+      </c>
+      <c r="E65">
+        <v>812.42399999999998</v>
+      </c>
+      <c r="F65">
+        <v>510.80399999999997</v>
+      </c>
+      <c r="G65">
+        <v>850.92700000000002</v>
+      </c>
+      <c r="H65">
+        <v>23430.091</v>
+      </c>
+      <c r="I65">
+        <v>665.27800000000002</v>
+      </c>
+      <c r="J65">
+        <v>10842.578</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1027.597</v>
+      </c>
+      <c r="O65">
+        <v>12939.027</v>
+      </c>
+      <c r="P65">
+        <v>11731.868</v>
+      </c>
+      <c r="Q65">
+        <v>-92.936999999999998</v>
+      </c>
+      <c r="R65">
+        <v>43646</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>10491.064</v>
+      </c>
+      <c r="U65">
+        <v>33.536000000000001</v>
+      </c>
+      <c r="V65">
+        <v>476.61200000000002</v>
+      </c>
+      <c r="W65">
+        <v>-251.82</v>
+      </c>
+      <c r="X65">
+        <v>-19.286999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>885.02</v>
+      </c>
+      <c r="Z65">
+        <v>-41.573</v>
+      </c>
+      <c r="AA65">
+        <v>60.167999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>66.497</v>
+      </c>
+      <c r="D66">
+        <v>787.197</v>
+      </c>
+      <c r="E66">
+        <v>776.22799999999995</v>
+      </c>
+      <c r="F66">
+        <v>486.40800000000002</v>
+      </c>
+      <c r="G66">
+        <v>1753.1780000000001</v>
+      </c>
+      <c r="H66">
+        <v>23172.764999999999</v>
+      </c>
+      <c r="I66">
+        <v>629.495</v>
+      </c>
+      <c r="J66">
+        <v>10924.414000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1020.547</v>
+      </c>
+      <c r="O66">
+        <v>12942.82</v>
+      </c>
+      <c r="P66">
+        <v>11792.061</v>
+      </c>
+      <c r="Q66">
+        <v>-25.667999999999999</v>
+      </c>
+      <c r="R66">
+        <v>43738</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>10229.945</v>
+      </c>
+      <c r="U66">
+        <v>7.19</v>
+      </c>
+      <c r="V66">
+        <v>284.63200000000001</v>
+      </c>
+      <c r="W66">
+        <v>-251.517</v>
+      </c>
+      <c r="X66">
+        <v>10.704000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>844.43700000000001</v>
+      </c>
+      <c r="Z66">
+        <v>-14.801</v>
+      </c>
+      <c r="AA66">
+        <v>66.497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>336.28399999999999</v>
+      </c>
+      <c r="D67">
+        <v>798.62</v>
+      </c>
+      <c r="E67">
+        <v>784.245</v>
+      </c>
+      <c r="F67">
+        <v>498.863</v>
+      </c>
+      <c r="G67">
+        <v>1113.828</v>
+      </c>
+      <c r="H67">
+        <v>23068.131000000001</v>
+      </c>
+      <c r="I67">
+        <v>682.29399999999998</v>
+      </c>
+      <c r="J67">
+        <v>10122.448</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1277.1120000000001</v>
+      </c>
+      <c r="O67">
+        <v>12418.566000000001</v>
+      </c>
+      <c r="P67">
+        <v>10994.073</v>
+      </c>
+      <c r="Q67">
+        <v>81.849000000000004</v>
+      </c>
+      <c r="R67">
+        <v>43830</v>
+      </c>
+      <c r="S67">
+        <v>1550</v>
+      </c>
+      <c r="T67">
+        <v>10649.565000000001</v>
+      </c>
+      <c r="U67">
+        <v>89.816999999999993</v>
+      </c>
+      <c r="V67">
+        <v>401.87299999999999</v>
+      </c>
+      <c r="W67">
+        <v>-20.707000000000001</v>
+      </c>
+      <c r="X67">
+        <v>-759.79399999999998</v>
+      </c>
+      <c r="Y67">
+        <v>871.625</v>
+      </c>
+      <c r="Z67">
+        <v>-19.678000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>336.28399999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>224.01400000000001</v>
+      </c>
+      <c r="D68">
+        <v>744.34100000000001</v>
+      </c>
+      <c r="E68">
+        <v>1011.878</v>
+      </c>
+      <c r="F68">
+        <v>376.16199999999998</v>
+      </c>
+      <c r="G68">
+        <v>1258.3579999999999</v>
+      </c>
+      <c r="H68">
+        <v>33113.300000000003</v>
+      </c>
+      <c r="I68">
+        <v>1051.2180000000001</v>
+      </c>
+      <c r="J68">
+        <v>12251.332</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-2346.0529999999999</v>
+      </c>
+      <c r="N68">
+        <v>2068.9009999999998</v>
+      </c>
+      <c r="O68">
+        <v>15896.733</v>
+      </c>
+      <c r="P68">
+        <v>13682.624</v>
+      </c>
+      <c r="Q68">
+        <v>161.446</v>
+      </c>
+      <c r="R68">
+        <v>43921</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>17216.566999999999</v>
+      </c>
+      <c r="U68">
+        <v>246.48</v>
+      </c>
+      <c r="V68">
+        <v>226.66</v>
+      </c>
+      <c r="W68">
+        <v>-551.40499999999997</v>
+      </c>
+      <c r="X68">
+        <v>91.01</v>
+      </c>
+      <c r="Y68">
+        <v>1431.2919999999999</v>
+      </c>
+      <c r="Z68">
+        <v>-77.5</v>
+      </c>
+      <c r="AA68">
+        <v>224.01400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>74.831000000000003</v>
+      </c>
+      <c r="D69">
+        <v>985.36300000000006</v>
+      </c>
+      <c r="E69">
+        <v>1039.434</v>
+      </c>
+      <c r="F69">
+        <v>604.27499999999998</v>
+      </c>
+      <c r="G69">
+        <v>1569.4480000000001</v>
+      </c>
+      <c r="H69">
+        <v>33862.637999999999</v>
+      </c>
+      <c r="I69">
+        <v>1152.4390000000001</v>
+      </c>
+      <c r="J69">
+        <v>12381.728999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2166.6729999999998</v>
+      </c>
+      <c r="O69">
+        <v>16139.405000000001</v>
+      </c>
+      <c r="P69">
+        <v>13833.523999999999</v>
+      </c>
+      <c r="Q69">
+        <v>260.334</v>
+      </c>
+      <c r="R69">
+        <v>44012</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>17723.233</v>
+      </c>
+      <c r="U69">
+        <v>505.17399999999998</v>
+      </c>
+      <c r="V69">
+        <v>485.71</v>
+      </c>
+      <c r="W69">
+        <v>-341.50599999999997</v>
+      </c>
+      <c r="X69">
+        <v>313.81799999999998</v>
+      </c>
+      <c r="Y69">
+        <v>1451.152</v>
+      </c>
+      <c r="Z69">
+        <v>53.35</v>
+      </c>
+      <c r="AA69">
+        <v>74.831000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="D70">
+        <v>1022.612</v>
+      </c>
+      <c r="E70">
+        <v>1096.133</v>
+      </c>
+      <c r="F70">
+        <v>621.274</v>
+      </c>
+      <c r="G70">
+        <v>2082.7220000000002</v>
+      </c>
+      <c r="H70">
+        <v>35435.332999999999</v>
+      </c>
+      <c r="I70">
+        <v>1480.723</v>
+      </c>
+      <c r="J70">
+        <v>12877.897999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2538.36</v>
+      </c>
+      <c r="O70">
+        <v>16995.580999999998</v>
+      </c>
+      <c r="P70">
+        <v>14322.022000000001</v>
+      </c>
+      <c r="Q70">
+        <v>467.55599999999998</v>
+      </c>
+      <c r="R70">
+        <v>44104</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>18439.752</v>
+      </c>
+      <c r="U70">
+        <v>971.30499999999995</v>
+      </c>
+      <c r="V70">
+        <v>468.36900000000003</v>
+      </c>
+      <c r="W70">
+        <v>-332.63600000000002</v>
+      </c>
+      <c r="X70">
+        <v>826.322</v>
+      </c>
+      <c r="Y70">
+        <v>1444.06</v>
+      </c>
+      <c r="Z70">
+        <v>-34.728999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>-0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>57.691000000000003</v>
+      </c>
+      <c r="D71">
         <v>1093.664</v>
       </c>
-      <c r="E42">
+      <c r="E71">
         <v>1131.2909999999999</v>
       </c>
-      <c r="F42">
-        <v>657.47299999999996</v>
-      </c>
-      <c r="G42">
-        <v>1239.7919999999999</v>
-      </c>
-      <c r="H42">
+      <c r="F71">
+        <v>673.35199999999998</v>
+      </c>
+      <c r="G71">
+        <v>1254.943</v>
+      </c>
+      <c r="H71">
         <v>36076.290999999997</v>
       </c>
-      <c r="I42">
-        <v>1328.28</v>
-      </c>
-      <c r="J42">
-        <v>13304.717000000001</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>2683.625</v>
-      </c>
-      <c r="O42">
+      <c r="I71">
+        <v>1053.1400000000001</v>
+      </c>
+      <c r="J71">
+        <v>13307.49</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2029.9860000000001</v>
+      </c>
+      <c r="O71">
         <v>17587.944</v>
       </c>
-      <c r="P42">
-        <v>14773.429</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="P71">
+        <v>15009.561</v>
+      </c>
+      <c r="Q71">
+        <v>-862.93700000000001</v>
+      </c>
+      <c r="R71">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S71">
+        <v>2878</v>
+      </c>
+      <c r="T71">
         <v>18488.347000000002</v>
       </c>
-      <c r="U42">
+      <c r="U71">
         <v>108.501</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>1468.712</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>57.692</v>
+      <c r="V71">
+        <v>525.80200000000002</v>
+      </c>
+      <c r="W71">
+        <v>-13.771000000000001</v>
+      </c>
+      <c r="X71">
+        <v>-295.46100000000001</v>
+      </c>
+      <c r="Y71">
+        <v>1552.16</v>
+      </c>
+      <c r="Z71">
+        <v>-15.425000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>57.691000000000003</v>
       </c>
     </row>
   </sheetData>
